--- a/resources/bechmarking-cnn-appliance-model.xlsx
+++ b/resources/bechmarking-cnn-appliance-model.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\phd-thesis\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BE890C-766E-47F8-9BA3-109066EFA083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42913E31-8730-4DD5-9706-B15EEAF80E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{790CA8BA-1667-4CB4-A7CA-F42D4A83EDEF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{790CA8BA-1667-4CB4-A7CA-F42D4A83EDEF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Multilabel Classifiers" sheetId="2" r:id="rId1"/>
-    <sheet name="Binary Classifiers" sheetId="3" r:id="rId2"/>
-    <sheet name="OLD RESULTS (IGNORE)" sheetId="1" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId1"/>
+    <sheet name="Multilabel Classifiers" sheetId="2" r:id="rId2"/>
+    <sheet name="Binary Classifiers" sheetId="3" r:id="rId3"/>
+    <sheet name="OLD RESULTS (IGNORE)" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'OLD RESULTS (IGNORE)'!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'OLD RESULTS (IGNORE)'!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
   <si>
     <t>Accuracy</t>
   </si>
@@ -272,6 +273,30 @@
   </si>
   <si>
     <t>Binary</t>
+  </si>
+  <si>
+    <t>refrigerator</t>
+  </si>
+  <si>
+    <t>dishwasher</t>
+  </si>
+  <si>
+    <t>washer dryer 1</t>
+  </si>
+  <si>
+    <t>washer dryer 2</t>
+  </si>
+  <si>
+    <t>microwave</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Avg,</t>
+  </si>
+  <si>
+    <t>Vl,</t>
   </si>
 </sst>
 </file>
@@ -373,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,12 +425,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,12 +433,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,19 +443,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,6 +801,643 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596A69E5-9006-4686-8012-965366EB83CB}">
+  <dimension ref="A1:R16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="6.77734375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="14.5546875" style="8" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" style="8" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="11">
+        <v>81.349999999999994</v>
+      </c>
+      <c r="D3" s="23">
+        <f>AVERAGE(C3:C7)</f>
+        <v>91.710000000000008</v>
+      </c>
+      <c r="E3" s="11">
+        <v>81.650000000000006</v>
+      </c>
+      <c r="F3" s="23">
+        <f>AVERAGE(E3:E7)</f>
+        <v>79.835999999999999</v>
+      </c>
+      <c r="G3" s="11">
+        <v>99.54</v>
+      </c>
+      <c r="H3" s="23">
+        <f>AVERAGE(G3:G7)</f>
+        <v>70.068000000000012</v>
+      </c>
+      <c r="I3" s="11">
+        <v>89.71</v>
+      </c>
+      <c r="J3" s="23">
+        <f>AVERAGE(I3:I7)</f>
+        <v>70.311999999999998</v>
+      </c>
+      <c r="K3" s="11">
+        <v>45.1</v>
+      </c>
+      <c r="L3" s="23">
+        <f>AVERAGE(K3:K7)</f>
+        <v>55.02</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="N3" s="23">
+        <f>AVERAGE(M3:M7)</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P3" s="23">
+        <f>AVERAGE(O3:O7)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>1970</v>
+      </c>
+      <c r="R3" s="9">
+        <v>8782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="11">
+        <v>87.05</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="11">
+        <v>87.71</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="11">
+        <v>99.12</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="11">
+        <v>93.06</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="11">
+        <v>48.06</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="9">
+        <v>1331</v>
+      </c>
+      <c r="R4" s="9">
+        <v>9421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="11">
+        <v>98.48</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="11">
+        <v>66.930000000000007</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="11">
+        <v>41.26</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="11">
+        <v>51.05</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="11">
+        <v>75.14</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="9">
+        <v>10546</v>
+      </c>
+      <c r="R5" s="9">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="11">
+        <v>92.09</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="11">
+        <v>63.27</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="11">
+        <v>10.46</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="11">
+        <v>17.95</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="11">
+        <v>56.9</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="O6" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="9">
+        <v>9863</v>
+      </c>
+      <c r="R6" s="9">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="11">
+        <v>99.58</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="11">
+        <v>99.62</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="11">
+        <v>99.96</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="11">
+        <v>99.79</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="11">
+        <v>49.9</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="9">
+        <v>41</v>
+      </c>
+      <c r="R7" s="9">
+        <v>10711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="21">
+        <v>81.34</v>
+      </c>
+      <c r="D8" s="23">
+        <f>AVERAGE(C8:C12)</f>
+        <v>91.68</v>
+      </c>
+      <c r="E8" s="21">
+        <v>81.67</v>
+      </c>
+      <c r="F8" s="23">
+        <f>AVERAGE(E8:E12)</f>
+        <v>80.873999999999995</v>
+      </c>
+      <c r="G8" s="21">
+        <v>99.49</v>
+      </c>
+      <c r="H8" s="23">
+        <f>AVERAGE(G8:G12)</f>
+        <v>69.888000000000005</v>
+      </c>
+      <c r="I8" s="21">
+        <v>89.7</v>
+      </c>
+      <c r="J8" s="23">
+        <f>AVERAGE(I8:I12)</f>
+        <v>70.212000000000018</v>
+      </c>
+      <c r="K8" s="21">
+        <v>45.3</v>
+      </c>
+      <c r="L8" s="23">
+        <f>AVERAGE(K8:K12)</f>
+        <v>55.274000000000001</v>
+      </c>
+      <c r="M8" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="N8" s="23">
+        <f>AVERAGE(M8:M12)</f>
+        <v>8.6000000000000007E-2</v>
+      </c>
+      <c r="O8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="23">
+        <f>AVERAGE(O8:O12)</f>
+        <v>0.55199999999999994</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>1970</v>
+      </c>
+      <c r="R8" s="21">
+        <v>8782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="21">
+        <v>86.93</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="21">
+        <v>87.83</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="21">
+        <v>98.77</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="21">
+        <v>92.98</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="21">
+        <v>49.31</v>
+      </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="N9" s="23"/>
+      <c r="O9" s="21">
+        <v>0.51</v>
+      </c>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="21">
+        <v>1331</v>
+      </c>
+      <c r="R9" s="21">
+        <v>9421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="21">
+        <v>98.46</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="21">
+        <v>65.62</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="21">
+        <v>40.78</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="21">
+        <v>50.3</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="21">
+        <v>74.760000000000005</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="21">
+        <v>10546</v>
+      </c>
+      <c r="R10" s="21">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="21">
+        <v>92.22</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="21">
+        <v>69.63</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="21">
+        <v>10.57</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="21">
+        <v>18.36</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="21">
+        <v>57.14</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="N11" s="23"/>
+      <c r="O11" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="21">
+        <v>9863</v>
+      </c>
+      <c r="R11" s="21">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="21">
+        <v>99.45</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="21">
+        <v>99.62</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="21">
+        <v>99.83</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="21">
+        <v>99.72</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="21">
+        <v>49.86</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="N12" s="23"/>
+      <c r="O12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="21">
+        <v>41</v>
+      </c>
+      <c r="R12" s="21">
+        <v>10711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="N8:N12"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F92BC9-F450-431B-9847-76447FA56B46}">
   <dimension ref="A1:V32"/>
   <sheetViews>
@@ -782,1377 +1462,1400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="17" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>41.32</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="23">
         <f>AVERAGE(E3:E7)</f>
         <v>86.940000000000012</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>41.04</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="23">
         <f>AVERAGE(G3:G7)</f>
         <v>23.071999999999999</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="10">
         <v>92.87</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="23">
         <f>AVERAGE(I3:I7)</f>
         <v>27.908000000000005</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="10">
         <v>56.93</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="23">
         <f>AVERAGE(K3:K7)</f>
         <v>20.847999999999999</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="10">
         <v>32.46</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="23">
         <f>AVERAGE(M3:M7)</f>
         <v>50.886000000000003</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="10">
         <v>0.49</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="23">
         <f>AVERAGE(O3:O7)</f>
         <v>0.53999999999999992</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="9">
         <v>2330</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="9">
         <v>1670</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>98.88</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12">
+      <c r="F4" s="23"/>
+      <c r="G4" s="10">
         <v>7.14</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="12">
+      <c r="H4" s="23"/>
+      <c r="I4" s="10">
         <v>3.03</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="12">
+      <c r="J4" s="23"/>
+      <c r="K4" s="10">
         <v>4.26</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="12">
+      <c r="L4" s="23"/>
+      <c r="M4" s="10">
         <v>51.84</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="12">
+      <c r="N4" s="23"/>
+      <c r="O4" s="10">
         <v>0.51</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="11">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="9">
         <v>3967</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="9">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="11" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>96.8</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12">
+      <c r="F5" s="23"/>
+      <c r="G5" s="10">
         <v>3.54</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12">
+      <c r="H5" s="23"/>
+      <c r="I5" s="10">
         <v>17.39</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12">
+      <c r="J5" s="23"/>
+      <c r="K5" s="10">
         <v>5.88</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="12">
+      <c r="L5" s="23"/>
+      <c r="M5" s="10">
         <v>52.13</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="12">
+      <c r="N5" s="23"/>
+      <c r="O5" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="11">
+      <c r="P5" s="23"/>
+      <c r="Q5" s="9">
         <v>3977</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="9">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="11" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>98.22</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12">
+      <c r="F6" s="23"/>
+      <c r="G6" s="10">
         <v>63.64</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12">
+      <c r="H6" s="23"/>
+      <c r="I6" s="10">
         <v>26.25</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12">
+      <c r="J6" s="23"/>
+      <c r="K6" s="10">
         <v>37.17</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="12">
+      <c r="L6" s="23"/>
+      <c r="M6" s="10">
         <v>68.13</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="12">
+      <c r="N6" s="23"/>
+      <c r="O6" s="10">
         <v>0.63</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="11">
+      <c r="P6" s="23"/>
+      <c r="Q6" s="9">
         <v>3920</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="9">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>99.48</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="12">
+      <c r="F7" s="23"/>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="10">
         <v>49.87</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="12">
+      <c r="N7" s="23"/>
+      <c r="O7" s="10">
         <v>0.5</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="11">
+      <c r="P7" s="23"/>
+      <c r="Q7" s="9">
         <v>3981</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>41.55</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="23">
         <f>AVERAGE(E8:E12)</f>
         <v>87.534000000000006</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>41.56</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="23">
         <f t="shared" ref="H8" si="0">AVERAGE(G8:G12)</f>
         <v>8.3120000000000012</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <v>98.44</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="23">
         <f t="shared" ref="J8" si="1">AVERAGE(I8:I12)</f>
         <v>19.687999999999999</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="10">
         <v>58.44</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="23">
         <f t="shared" ref="L8" si="2">AVERAGE(K8:K12)</f>
         <v>11.687999999999999</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="10">
         <v>29.98</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="23">
         <f t="shared" ref="N8" si="3">AVERAGE(M8:M12)</f>
         <v>45.8</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="10">
         <v>0.5</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="23">
         <f t="shared" ref="P8" si="4">AVERAGE(O8:O12)</f>
         <v>0.5</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="9">
         <v>2330</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="9">
         <v>1670</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>99.18</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="12">
+      <c r="F9" s="23"/>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="10">
         <v>49.79</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="12">
+      <c r="N9" s="23"/>
+      <c r="O9" s="10">
         <v>0.5</v>
       </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="11">
+      <c r="P9" s="23"/>
+      <c r="Q9" s="9">
         <v>3967</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="9">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>99.42</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="12">
+      <c r="F10" s="23"/>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="10">
         <v>49.86</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="12">
+      <c r="N10" s="23"/>
+      <c r="O10" s="10">
         <v>0.5</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="11">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="9">
         <v>3977</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="9">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="11" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>98</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="12">
+      <c r="F11" s="23"/>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="10">
         <v>49.49</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="12">
+      <c r="N11" s="23"/>
+      <c r="O11" s="10">
         <v>0.5</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="11">
+      <c r="P11" s="23"/>
+      <c r="Q11" s="9">
         <v>3920</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="9">
         <v>80</v>
       </c>
-      <c r="S11" s="14"/>
+      <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="11" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>99.52</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="12">
+      <c r="F12" s="23"/>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="10">
         <v>49.88</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="12">
+      <c r="N12" s="23"/>
+      <c r="O12" s="10">
         <v>0.5</v>
       </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="11">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="9">
         <v>3981</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="16">
         <v>60.25</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="26">
         <f>AVERAGE(E13:E17)</f>
         <v>91.092000000000013</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="16">
         <v>52.52</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="26">
         <f t="shared" ref="H13" si="5">AVERAGE(G13:G17)</f>
         <v>25.877999999999997</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="16">
         <v>49.94</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="26">
         <f t="shared" ref="J13" si="6">AVERAGE(I13:I17)</f>
         <v>25.095999999999997</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="16">
         <v>51.2</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="26">
         <f t="shared" ref="L13" si="7">AVERAGE(K13:K17)</f>
         <v>24.98</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="16">
         <v>58.83</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="26">
         <f t="shared" ref="N13" si="8">AVERAGE(M13:M17)</f>
         <v>58.891999999999996</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="16">
         <v>0.59</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="26">
         <f t="shared" ref="P13" si="9">AVERAGE(O13:O17)</f>
         <v>0.59199999999999997</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="15">
         <v>2330</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="15">
         <v>1670</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="16">
         <v>99.05</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="21">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="21">
-        <v>0</v>
-      </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="21">
+      <c r="F14" s="26"/>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="16">
         <v>49.76</v>
       </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="21">
+      <c r="N14" s="26"/>
+      <c r="O14" s="16">
         <v>0.5</v>
       </c>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="20">
+      <c r="P14" s="26"/>
+      <c r="Q14" s="15">
         <v>3967</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="15">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="16">
         <v>97.88</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21">
+      <c r="F15" s="26"/>
+      <c r="G15" s="16">
         <v>4.41</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="21">
+      <c r="H15" s="26"/>
+      <c r="I15" s="16">
         <v>13.04</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="21">
+      <c r="J15" s="26"/>
+      <c r="K15" s="16">
         <v>6.59</v>
       </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="21">
+      <c r="L15" s="26"/>
+      <c r="M15" s="16">
         <v>52.76</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="21">
+      <c r="N15" s="26"/>
+      <c r="O15" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="20">
+      <c r="P15" s="26"/>
+      <c r="Q15" s="15">
         <v>3977</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="15">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="16">
         <v>98.78</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="21">
+      <c r="F16" s="26"/>
+      <c r="G16" s="16">
         <v>72.459999999999994</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="21">
+      <c r="H16" s="26"/>
+      <c r="I16" s="16">
         <v>62.5</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="21">
+      <c r="J16" s="26"/>
+      <c r="K16" s="16">
         <v>67.11</v>
       </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="21">
+      <c r="L16" s="26"/>
+      <c r="M16" s="16">
         <v>83.24</v>
       </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="21">
+      <c r="N16" s="26"/>
+      <c r="O16" s="16">
         <v>0.81</v>
       </c>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="20">
+      <c r="P16" s="26"/>
+      <c r="Q16" s="15">
         <v>3920</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="15">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="16">
         <v>99.5</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="21">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="21">
-        <v>0</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="21">
-        <v>0</v>
-      </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="21">
+      <c r="F17" s="26"/>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="26"/>
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="26"/>
+      <c r="M17" s="16">
         <v>49.87</v>
       </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="21">
+      <c r="N17" s="26"/>
+      <c r="O17" s="16">
         <v>0.5</v>
       </c>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="20">
+      <c r="P17" s="26"/>
+      <c r="Q17" s="15">
         <v>3981</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>41.32</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="23">
         <f>AVERAGE(E18:E22)</f>
         <v>87.177999999999997</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>41.18</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="23">
         <f t="shared" ref="H18" si="10">AVERAGE(G18:G22)</f>
         <v>23.613999999999997</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="10">
         <v>94.67</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="23">
         <f t="shared" ref="J18" si="11">AVERAGE(I18:I22)</f>
         <v>25.673999999999999</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="10">
         <v>57.4</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="23">
         <f t="shared" ref="L18" si="12">AVERAGE(K18:K22)</f>
         <v>19.808</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="10">
         <v>31.59</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="23">
         <f t="shared" ref="N18" si="13">AVERAGE(M18:M22)</f>
         <v>50.208000000000006</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="10">
         <v>0.49</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="23">
         <f t="shared" ref="P18" si="14">AVERAGE(O18:O22)</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="9">
         <v>2330</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="9">
         <v>1670</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="11" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>99.05</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="12">
+      <c r="F19" s="23"/>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="10">
+        <v>0</v>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="10">
         <v>49.76</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="12">
+      <c r="N19" s="23"/>
+      <c r="O19" s="10">
         <v>0.5</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="11">
+      <c r="P19" s="23"/>
+      <c r="Q19" s="9">
         <v>3967</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="9">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="11" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <v>97.75</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12">
+      <c r="F20" s="23"/>
+      <c r="G20" s="10">
         <v>2.82</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="12">
+      <c r="H20" s="23"/>
+      <c r="I20" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="12">
+      <c r="J20" s="23"/>
+      <c r="K20" s="10">
         <v>4.26</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="12">
+      <c r="L20" s="23"/>
+      <c r="M20" s="10">
         <v>51.56</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="12">
+      <c r="N20" s="23"/>
+      <c r="O20" s="10">
         <v>0.53</v>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="11">
+      <c r="P20" s="23"/>
+      <c r="Q20" s="9">
         <v>3977</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="9">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="11" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>98.32</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="12">
+      <c r="F21" s="23"/>
+      <c r="G21" s="10">
         <v>74.069999999999993</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="12">
+      <c r="H21" s="23"/>
+      <c r="I21" s="10">
         <v>25</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="12">
+      <c r="J21" s="23"/>
+      <c r="K21" s="10">
         <v>37.380000000000003</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="12">
+      <c r="L21" s="23"/>
+      <c r="M21" s="10">
         <v>68.27</v>
       </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="12">
+      <c r="N21" s="23"/>
+      <c r="O21" s="10">
         <v>0.62</v>
       </c>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="11">
+      <c r="P21" s="23"/>
+      <c r="Q21" s="9">
         <v>3920</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="9">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="11" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <v>99.45</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="12">
-        <v>0</v>
-      </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="12">
+      <c r="F22" s="23"/>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="10">
+        <v>0</v>
+      </c>
+      <c r="L22" s="23"/>
+      <c r="M22" s="10">
         <v>49.86</v>
       </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="12">
+      <c r="N22" s="23"/>
+      <c r="O22" s="10">
         <v>0.5</v>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="11">
+      <c r="P22" s="23"/>
+      <c r="Q22" s="9">
         <v>3981</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="9" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <v>41.5</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="23">
         <f>AVERAGE(E23:E27)</f>
         <v>87.527999999999992</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="10">
         <v>41.49</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="23">
         <f t="shared" ref="H23" si="15">AVERAGE(G23:G27)</f>
         <v>28.298000000000002</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="10">
         <v>97.78</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="23">
         <f t="shared" ref="J23" si="16">AVERAGE(I23:I27)</f>
         <v>19.806000000000001</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="10">
         <v>58.26</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="23">
         <f t="shared" ref="L23" si="17">AVERAGE(K23:K27)</f>
         <v>12.145999999999999</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="10">
         <v>30.26</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="23">
         <f t="shared" ref="N23" si="18">AVERAGE(M23:M27)</f>
         <v>46.106000000000002</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="10">
         <v>0.49</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="23">
         <f t="shared" ref="P23" si="19">AVERAGE(O23:O27)</f>
         <v>0.5</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q23" s="9">
         <v>2330</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="9">
         <v>1670</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="11" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <v>99.18</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="12">
-        <v>0</v>
-      </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="12">
+      <c r="F24" s="23"/>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="10">
         <v>49.79</v>
       </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="12">
+      <c r="N24" s="23"/>
+      <c r="O24" s="10">
         <v>0.5</v>
       </c>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="11">
+      <c r="P24" s="23"/>
+      <c r="Q24" s="9">
         <v>3967</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="9">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="11" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <v>99.42</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="12">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="12">
-        <v>0</v>
-      </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="12">
+      <c r="F25" s="23"/>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="10">
+        <v>0</v>
+      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="10">
         <v>49.86</v>
       </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="12">
+      <c r="N25" s="23"/>
+      <c r="O25" s="10">
         <v>0.5</v>
       </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="11">
+      <c r="P25" s="23"/>
+      <c r="Q25" s="9">
         <v>3977</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R25" s="9">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="11" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>98.02</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12">
+      <c r="F26" s="23"/>
+      <c r="G26" s="10">
         <v>100</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="12">
+      <c r="H26" s="23"/>
+      <c r="I26" s="10">
         <v>1.25</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="12">
+      <c r="J26" s="23"/>
+      <c r="K26" s="10">
         <v>2.4700000000000002</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="12">
+      <c r="L26" s="23"/>
+      <c r="M26" s="10">
         <v>50.74</v>
       </c>
-      <c r="N26" s="13"/>
-      <c r="O26" s="12">
+      <c r="N26" s="23"/>
+      <c r="O26" s="10">
         <v>0.51</v>
       </c>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="11">
+      <c r="P26" s="23"/>
+      <c r="Q26" s="9">
         <v>3920</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R26" s="9">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="11" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <v>99.52</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="12">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="12">
+      <c r="F27" s="23"/>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="23"/>
+      <c r="K27" s="10">
+        <v>0</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="10">
         <v>49.88</v>
       </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="12">
+      <c r="N27" s="23"/>
+      <c r="O27" s="10">
         <v>0.5</v>
       </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="11">
+      <c r="P27" s="23"/>
+      <c r="Q27" s="9">
         <v>3981</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R27" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="16">
         <v>66.569999999999993</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="25">
         <f>AVERAGE(E28:E32)</f>
         <v>92.110000000000014</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="16">
         <v>62.14</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="25">
         <f t="shared" ref="H28" si="20">AVERAGE(G28:G32)</f>
         <v>29.123999999999995</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="16">
         <v>51.02</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="25">
         <f t="shared" ref="J28" si="21">AVERAGE(I28:I32)</f>
         <v>28.983999999999998</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="16">
         <v>56.03</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="25">
         <f t="shared" ref="L28" si="22">AVERAGE(K28:K32)</f>
         <v>27.608000000000004</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M28" s="16">
         <v>64.540000000000006</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="25">
         <f t="shared" ref="N28" si="23">AVERAGE(M28:M32)</f>
         <v>60.803999999999995</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="16">
         <v>0.64</v>
       </c>
-      <c r="P28" s="24">
+      <c r="P28" s="25">
         <f t="shared" ref="P28" si="24">AVERAGE(O28:O32)</f>
         <v>0.61799999999999999</v>
       </c>
-      <c r="Q28" s="20">
+      <c r="Q28" s="15">
         <v>2330</v>
       </c>
-      <c r="R28" s="20">
+      <c r="R28" s="15">
         <v>1670</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="16">
         <v>99</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="21">
-        <v>0</v>
-      </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="21">
-        <v>0</v>
-      </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="21">
-        <v>0</v>
-      </c>
-      <c r="L29" s="24"/>
-      <c r="M29" s="21">
+      <c r="F29" s="25"/>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="16">
+        <v>0</v>
+      </c>
+      <c r="L29" s="25"/>
+      <c r="M29" s="16">
         <v>49.75</v>
       </c>
-      <c r="N29" s="24"/>
-      <c r="O29" s="21">
+      <c r="N29" s="25"/>
+      <c r="O29" s="16">
         <v>0.5</v>
       </c>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="20">
+      <c r="P29" s="25"/>
+      <c r="Q29" s="15">
         <v>3967</v>
       </c>
-      <c r="R29" s="20">
+      <c r="R29" s="15">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="16">
         <v>96.9</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="21">
+      <c r="F30" s="25"/>
+      <c r="G30" s="16">
         <v>3.67</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="21">
+      <c r="H30" s="25"/>
+      <c r="I30" s="16">
         <v>17.39</v>
       </c>
-      <c r="J30" s="24"/>
-      <c r="K30" s="21">
+      <c r="J30" s="25"/>
+      <c r="K30" s="16">
         <v>6.06</v>
       </c>
-      <c r="L30" s="24"/>
-      <c r="M30" s="21">
+      <c r="L30" s="25"/>
+      <c r="M30" s="16">
         <v>52.24</v>
       </c>
-      <c r="N30" s="24"/>
-      <c r="O30" s="21">
+      <c r="N30" s="25"/>
+      <c r="O30" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="20">
+      <c r="P30" s="25"/>
+      <c r="Q30" s="15">
         <v>3977</v>
       </c>
-      <c r="R30" s="20">
+      <c r="R30" s="15">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="16">
         <v>98.68</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="21">
+      <c r="F31" s="25"/>
+      <c r="G31" s="16">
         <v>65.52</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="21">
+      <c r="H31" s="25"/>
+      <c r="I31" s="16">
         <v>71.25</v>
       </c>
-      <c r="J31" s="24"/>
-      <c r="K31" s="21">
+      <c r="J31" s="25"/>
+      <c r="K31" s="16">
         <v>68.260000000000005</v>
       </c>
-      <c r="L31" s="24"/>
-      <c r="M31" s="21">
+      <c r="L31" s="25"/>
+      <c r="M31" s="16">
         <v>83.79</v>
       </c>
-      <c r="N31" s="24"/>
-      <c r="O31" s="21">
+      <c r="N31" s="25"/>
+      <c r="O31" s="16">
         <v>0.85</v>
       </c>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="20">
+      <c r="P31" s="25"/>
+      <c r="Q31" s="15">
         <v>3920</v>
       </c>
-      <c r="R31" s="20">
+      <c r="R31" s="15">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="16">
         <v>99.4</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="21">
+      <c r="F32" s="25"/>
+      <c r="G32" s="16">
         <v>14.29</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="21">
+      <c r="H32" s="25"/>
+      <c r="I32" s="16">
         <v>5.26</v>
       </c>
-      <c r="J32" s="24"/>
-      <c r="K32" s="21">
+      <c r="J32" s="25"/>
+      <c r="K32" s="16">
         <v>7.69</v>
       </c>
-      <c r="L32" s="24"/>
-      <c r="M32" s="21">
+      <c r="L32" s="25"/>
+      <c r="M32" s="16">
         <v>53.7</v>
       </c>
-      <c r="N32" s="24"/>
-      <c r="O32" s="21">
+      <c r="N32" s="25"/>
+      <c r="O32" s="16">
         <v>0.53</v>
       </c>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="20">
+      <c r="P32" s="25"/>
+      <c r="Q32" s="15">
         <v>3981</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R32" s="15">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="P28:P32"/>
-    <mergeCell ref="N8:N12"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="N28:N32"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="P18:P22"/>
-    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="B18:B32"/>
+    <mergeCell ref="A3:A32"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="F23:F27"/>
     <mergeCell ref="J18:J22"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="J28:J32"/>
@@ -2162,43 +2865,20 @@
     <mergeCell ref="L18:L22"/>
     <mergeCell ref="L23:L27"/>
     <mergeCell ref="L28:L32"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="J3:J7"/>
     <mergeCell ref="J8:J12"/>
     <mergeCell ref="J13:J17"/>
-    <mergeCell ref="N3:N7"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="B18:B32"/>
-    <mergeCell ref="A3:A32"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="B3:B17"/>
-    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="P28:P32"/>
+    <mergeCell ref="N8:N12"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="N28:N32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -2208,11 +2888,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FB7470-7974-49E1-91D1-266D323D9D68}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -2233,965 +2913,955 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="17" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>62.88</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="23">
         <f>AVERAGE(E3:E7)</f>
         <v>91.31</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>58.33</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="23">
         <f t="shared" ref="H3" si="0">AVERAGE(G3:G7)</f>
         <v>33.604000000000006</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="10">
         <v>38.799999999999997</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="23">
         <f t="shared" ref="J3" si="1">AVERAGE(I3:I7)</f>
         <v>29.794</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="10">
         <v>46.6</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="23">
         <f t="shared" ref="L3" si="2">AVERAGE(K3:K7)</f>
         <v>29.459999999999997</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="10">
         <v>59.07</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="23">
         <f t="shared" ref="N3" si="3">AVERAGE(M3:M7)</f>
         <v>61.564</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="10">
         <v>0.59</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="23">
         <f t="shared" ref="P3" si="4">AVERAGE(O3:O7)</f>
         <v>0.62400000000000011</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="9">
         <v>2330</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="9">
         <v>1670</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>98.72</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12">
+      <c r="F4" s="23"/>
+      <c r="G4" s="10">
         <v>5</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="12">
+      <c r="H4" s="23"/>
+      <c r="I4" s="10">
         <v>3.03</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="12">
+      <c r="J4" s="23"/>
+      <c r="K4" s="10">
         <v>3.77</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="12">
+      <c r="L4" s="23"/>
+      <c r="M4" s="10">
         <v>51.57</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="12">
+      <c r="N4" s="23"/>
+      <c r="O4" s="10">
         <v>0.51</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="11">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="9">
         <v>3967</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="9">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="11" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>96.88</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12">
+      <c r="F5" s="23"/>
+      <c r="G5" s="10">
         <v>5.26</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12">
+      <c r="H5" s="23"/>
+      <c r="I5" s="10">
         <v>26.09</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12">
+      <c r="J5" s="23"/>
+      <c r="K5" s="10">
         <v>8.76</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="12">
+      <c r="L5" s="23"/>
+      <c r="M5" s="10">
         <v>53.58</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="12">
+      <c r="N5" s="23"/>
+      <c r="O5" s="10">
         <v>0.62</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="11">
+      <c r="P5" s="23"/>
+      <c r="Q5" s="9">
         <v>3977</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="9">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="11" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>98.95</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="23">
+      <c r="F6" s="23"/>
+      <c r="G6" s="17">
         <v>82.76</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12">
+      <c r="H6" s="23"/>
+      <c r="I6" s="10">
         <v>60</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12">
+      <c r="J6" s="23"/>
+      <c r="K6" s="10">
         <v>69.569999999999993</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="12">
+      <c r="L6" s="23"/>
+      <c r="M6" s="10">
         <v>84.52</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="12">
+      <c r="N6" s="23"/>
+      <c r="O6" s="10">
         <v>0.8</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="11">
+      <c r="P6" s="23"/>
+      <c r="Q6" s="9">
         <v>3920</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="9">
         <v>80</v>
       </c>
-      <c r="S6" s="14"/>
+      <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>99.12</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12">
+      <c r="F7" s="23"/>
+      <c r="G7" s="10">
         <v>16.670000000000002</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="12">
+      <c r="H7" s="23"/>
+      <c r="I7" s="10">
         <v>21.05</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="12">
+      <c r="J7" s="23"/>
+      <c r="K7" s="10">
         <v>18.600000000000001</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="12">
+      <c r="L7" s="23"/>
+      <c r="M7" s="10">
         <v>59.08</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="12">
+      <c r="N7" s="23"/>
+      <c r="O7" s="10">
         <v>0.6</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="11">
+      <c r="P7" s="23"/>
+      <c r="Q7" s="9">
         <v>3981</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="19" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="16">
         <v>62.45</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="26">
         <f>AVERAGE(E8:E12)</f>
         <v>91.554000000000002</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="16">
         <v>55.58</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="26">
         <f t="shared" ref="H8" si="5">AVERAGE(G8:G12)</f>
         <v>27.796000000000003</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="16">
         <v>50.12</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="26">
         <f t="shared" ref="J8" si="6">AVERAGE(I8:I12)</f>
         <v>26.881999999999998</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="16">
         <v>52.71</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="26">
         <f t="shared" ref="L8" si="7">AVERAGE(K8:K12)</f>
         <v>26.818000000000001</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="16">
         <v>60.79</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="26">
         <f t="shared" ref="N8" si="8">AVERAGE(M8:M12)</f>
         <v>60.06</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="16">
         <v>0.61</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="26">
         <f t="shared" ref="P8" si="9">AVERAGE(O8:O12)</f>
         <v>0.63</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="15">
         <v>2330</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="15">
         <v>1670</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="16">
         <v>98.95</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="21">
-        <v>0</v>
-      </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="21">
+      <c r="F9" s="26"/>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="16">
         <v>49.74</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="21">
+      <c r="N9" s="26"/>
+      <c r="O9" s="16">
         <v>0.5</v>
       </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="20">
+      <c r="P9" s="26"/>
+      <c r="Q9" s="15">
         <v>3967</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="15">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="16">
         <v>97.8</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21">
+      <c r="F10" s="26"/>
+      <c r="G10" s="16">
         <v>4.2300000000000004</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21">
+      <c r="H10" s="26"/>
+      <c r="I10" s="16">
         <v>13.04</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21">
+      <c r="J10" s="26"/>
+      <c r="K10" s="16">
         <v>6.38</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21">
+      <c r="L10" s="26"/>
+      <c r="M10" s="16">
         <v>52.63</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21">
+      <c r="N10" s="26"/>
+      <c r="O10" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="20">
+      <c r="P10" s="26"/>
+      <c r="Q10" s="15">
         <v>3977</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="15">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="16">
         <v>99.05</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="21">
+      <c r="F11" s="26"/>
+      <c r="G11" s="16">
         <v>79.17</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="21">
+      <c r="H11" s="26"/>
+      <c r="I11" s="16">
         <v>71.25</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="21">
+      <c r="J11" s="26"/>
+      <c r="K11" s="16">
         <v>75</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="21">
+      <c r="L11" s="26"/>
+      <c r="M11" s="16">
         <v>87.26</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="21">
+      <c r="N11" s="26"/>
+      <c r="O11" s="16">
         <v>0.85</v>
       </c>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="20">
+      <c r="P11" s="26"/>
+      <c r="Q11" s="15">
         <v>3920</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="15">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="16">
         <v>99.52</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="21">
-        <v>0</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="21">
-        <v>0</v>
-      </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="21">
+      <c r="F12" s="26"/>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="16">
         <v>49.88</v>
       </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="20">
+      <c r="N12" s="26"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="15">
         <v>3981</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>62.32</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="23">
         <f>AVERAGE(E13:E17)</f>
         <v>90.974000000000004</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>55.45</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="23">
         <v>43.75</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <v>49.64</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="23">
         <f t="shared" ref="J13" si="10">AVERAGE(I13:I17)</f>
         <v>27.660000000000004</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="10">
         <v>52.39</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="23">
         <f t="shared" ref="L13" si="11">AVERAGE(K13:K17)</f>
         <v>29.304000000000002</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="10">
         <v>60.61</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="23">
         <f t="shared" ref="N13" si="12">AVERAGE(M13:M17)</f>
         <v>61.158000000000001</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="10">
         <v>0.61</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="23">
         <f t="shared" ref="P13" si="13">AVERAGE(O13:O17)</f>
         <v>0.60600000000000009</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="9">
         <v>2330</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="9">
         <v>1670</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="11" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>98.58</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12">
+      <c r="F14" s="23"/>
+      <c r="G14" s="10">
         <v>3.85</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="12">
+      <c r="H14" s="23"/>
+      <c r="I14" s="10">
         <v>3.03</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="12">
+      <c r="J14" s="23"/>
+      <c r="K14" s="10">
         <v>3.39</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="12">
+      <c r="L14" s="23"/>
+      <c r="M14" s="10">
         <v>51.34</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="12">
+      <c r="N14" s="23"/>
+      <c r="O14" s="10">
         <v>0.51</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="11">
+      <c r="P14" s="23"/>
+      <c r="Q14" s="9">
         <v>3967</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="9">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="11" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>95.62</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12">
+      <c r="F15" s="23"/>
+      <c r="G15" s="10">
         <v>3.66</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="12">
+      <c r="H15" s="23"/>
+      <c r="I15" s="10">
         <v>26.09</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="12">
+      <c r="J15" s="23"/>
+      <c r="K15" s="10">
         <v>6.42</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="12">
+      <c r="L15" s="23"/>
+      <c r="M15" s="10">
         <v>52.09</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="12">
+      <c r="N15" s="23"/>
+      <c r="O15" s="10">
         <v>0.61</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="11">
+      <c r="P15" s="23"/>
+      <c r="Q15" s="9">
         <v>3977</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="9">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="11" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>98.8</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12">
+      <c r="F16" s="23"/>
+      <c r="G16" s="10">
         <v>92.11</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="12">
+      <c r="H16" s="23"/>
+      <c r="I16" s="10">
         <v>43.75</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="12">
+      <c r="J16" s="23"/>
+      <c r="K16" s="10">
         <v>59.32</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="12">
+      <c r="L16" s="23"/>
+      <c r="M16" s="10">
         <v>79.36</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="12">
+      <c r="N16" s="23"/>
+      <c r="O16" s="10">
         <v>0.72</v>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="11">
+      <c r="P16" s="23"/>
+      <c r="Q16" s="9">
         <v>3920</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="9">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="11" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>99.55</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12">
+      <c r="F17" s="23"/>
+      <c r="G17" s="10">
         <v>60</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="12">
+      <c r="H17" s="23"/>
+      <c r="I17" s="10">
         <v>15.79</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="12">
+      <c r="J17" s="23"/>
+      <c r="K17" s="10">
         <v>25</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="12">
+      <c r="L17" s="23"/>
+      <c r="M17" s="10">
         <v>62.39</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="12">
+      <c r="N17" s="23"/>
+      <c r="O17" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="11">
+      <c r="P17" s="23"/>
+      <c r="Q17" s="9">
         <v>3981</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="19" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="16">
         <v>62.3</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="26">
         <f>AVERAGE(E18:E22)</f>
         <v>91.47</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="16">
         <v>55.61</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="26">
         <f t="shared" ref="H18" si="14">AVERAGE(G18:G22)</f>
         <v>29.712</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="16">
         <v>48.08</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="26">
         <f t="shared" ref="J18" si="15">AVERAGE(I18:I22)</f>
         <v>28.689999999999998</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="16">
         <v>51.57</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="26">
         <f t="shared" ref="L18" si="16">AVERAGE(K18:K22)</f>
         <v>27.794</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="16">
         <v>60.35</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="26">
         <f t="shared" ref="N18" si="17">AVERAGE(M18:M22)</f>
         <v>60.56</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="16">
         <v>0.6</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="26">
         <f t="shared" ref="P18" si="18">AVERAGE(O18:O22)</f>
         <v>0.61199999999999999</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="15">
         <v>2330</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="15">
         <v>1670</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="16">
         <v>98.9</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21">
+      <c r="F19" s="26"/>
+      <c r="G19" s="16">
         <v>7.69</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="21">
+      <c r="H19" s="26"/>
+      <c r="I19" s="16">
         <v>3.03</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="21">
+      <c r="J19" s="26"/>
+      <c r="K19" s="16">
         <v>4.3499999999999996</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="21">
+      <c r="L19" s="26"/>
+      <c r="M19" s="16">
         <v>51.9</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="21">
+      <c r="N19" s="26"/>
+      <c r="O19" s="16">
         <v>0.51</v>
       </c>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="20">
+      <c r="P19" s="26"/>
+      <c r="Q19" s="15">
         <v>3967</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="15">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="16">
         <v>97.68</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21">
+      <c r="F20" s="26"/>
+      <c r="G20" s="16">
         <v>7.32</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="21">
+      <c r="H20" s="26"/>
+      <c r="I20" s="16">
         <v>26.09</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="21">
+      <c r="J20" s="26"/>
+      <c r="K20" s="16">
         <v>11.43</v>
       </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="21">
+      <c r="L20" s="26"/>
+      <c r="M20" s="16">
         <v>55.13</v>
       </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="21">
+      <c r="N20" s="26"/>
+      <c r="O20" s="16">
         <v>0.62</v>
       </c>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="20">
+      <c r="P20" s="26"/>
+      <c r="Q20" s="15">
         <v>3977</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="15">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="16">
         <v>98.95</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21">
+      <c r="F21" s="26"/>
+      <c r="G21" s="16">
         <v>77.94</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="21">
+      <c r="H21" s="26"/>
+      <c r="I21" s="16">
         <v>66.25</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="21">
+      <c r="J21" s="26"/>
+      <c r="K21" s="16">
         <v>71.62</v>
       </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="21">
+      <c r="L21" s="26"/>
+      <c r="M21" s="16">
         <v>85.54</v>
       </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="21">
+      <c r="N21" s="26"/>
+      <c r="O21" s="16">
         <v>0.83</v>
       </c>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="20">
+      <c r="P21" s="26"/>
+      <c r="Q21" s="15">
         <v>3920</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="15">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="16">
         <v>99.52</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="21">
-        <v>0</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="21">
-        <v>0</v>
-      </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="21">
-        <v>0</v>
-      </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="21">
+      <c r="F22" s="26"/>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="26"/>
+      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="26"/>
+      <c r="M22" s="16">
         <v>49.88</v>
       </c>
-      <c r="N22" s="22"/>
-      <c r="O22" s="21">
+      <c r="N22" s="26"/>
+      <c r="O22" s="16">
         <v>0.5</v>
       </c>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="20">
+      <c r="P22" s="26"/>
+      <c r="Q22" s="15">
         <v>3981</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R22" s="15">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="P18:P22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="J18:J22"/>
-    <mergeCell ref="L18:L22"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="L13:L17"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="N8:N12"/>
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="L3:L7"/>
     <mergeCell ref="N3:N7"/>
     <mergeCell ref="P3:P7"/>
@@ -3201,25 +3871,35 @@
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="H8:H12"/>
     <mergeCell ref="J8:J12"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="N8:N12"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="L18:L22"/>
+    <mergeCell ref="N18:N22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDD735A-57D4-40B3-ABFC-94C9F586F621}">
   <dimension ref="A1:P18"/>
   <sheetViews>

--- a/resources/bechmarking-cnn-appliance-model.xlsx
+++ b/resources/bechmarking-cnn-appliance-model.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\phd-thesis\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42913E31-8730-4DD5-9706-B15EEAF80E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D50BB9D-42CF-4B88-A7B2-67E4C7CB5FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{790CA8BA-1667-4CB4-A7CA-F42D4A83EDEF}"/>
+    <workbookView xWindow="11964" yWindow="720" windowWidth="17748" windowHeight="7212" xr2:uid="{790CA8BA-1667-4CB4-A7CA-F42D4A83EDEF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="4" r:id="rId1"/>
-    <sheet name="Multilabel Classifiers" sheetId="2" r:id="rId2"/>
-    <sheet name="Binary Classifiers" sheetId="3" r:id="rId3"/>
-    <sheet name="OLD RESULTS (IGNORE)" sheetId="1" r:id="rId4"/>
+    <sheet name="Planilha2" sheetId="6" r:id="rId1"/>
+    <sheet name="Final results" sheetId="5" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId3"/>
+    <sheet name="Multilabel Classifiers" sheetId="2" r:id="rId4"/>
+    <sheet name="Binary Classifiers" sheetId="3" r:id="rId5"/>
+    <sheet name="OLD RESULTS (IGNORE)" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'OLD RESULTS (IGNORE)'!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'OLD RESULTS (IGNORE)'!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="91">
   <si>
     <t>Accuracy</t>
   </si>
@@ -297,13 +299,25 @@
   </si>
   <si>
     <t>Vl,</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>MULTILABEL</t>
+  </si>
+  <si>
+    <t>ESPECIALISTAS (BINÁRIOS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,8 +364,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,8 +392,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -394,11 +422,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,7 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -470,10 +542,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -488,6 +596,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,10 +955,3346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F845A1-0A49-4B56-A12B-C2DB66F3D67A}">
+  <dimension ref="A1:R29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.77734375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="3.21875" style="58" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="58" customWidth="1"/>
+    <col min="8" max="8" width="3" style="58" customWidth="1"/>
+    <col min="13" max="16" width="8.88671875" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="53"/>
+      <c r="I2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="27">
+        <v>97.79</v>
+      </c>
+      <c r="D4" s="29">
+        <f>AVERAGE(C4:C8)</f>
+        <v>95.594000000000008</v>
+      </c>
+      <c r="E4" s="55">
+        <v>97.91</v>
+      </c>
+      <c r="F4" s="56">
+        <f>AVERAGE(E4:E8)</f>
+        <v>68.618000000000009</v>
+      </c>
+      <c r="G4" s="57">
+        <v>99.52</v>
+      </c>
+      <c r="H4" s="56">
+        <f>AVERAGE(G4:G8)</f>
+        <v>64.611999999999995</v>
+      </c>
+      <c r="I4" s="23">
+        <v>98.71</v>
+      </c>
+      <c r="J4" s="29">
+        <f>AVERAGE(I4:I8)</f>
+        <v>65.710000000000008</v>
+      </c>
+      <c r="K4" s="27">
+        <v>95.45</v>
+      </c>
+      <c r="L4" s="29">
+        <f>AVERAGE(K4:K8)</f>
+        <v>68.557999999999993</v>
+      </c>
+      <c r="M4" s="55">
+        <v>0.02</v>
+      </c>
+      <c r="N4" s="56">
+        <f>AVERAGE(M4:M8)</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O4" s="57">
+        <v>0.94</v>
+      </c>
+      <c r="P4" s="56">
+        <f>AVERAGE(O4:O8)</f>
+        <v>0.66399999999999992</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>255</v>
+      </c>
+      <c r="R4" s="44">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+      <c r="B5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="27">
+        <v>91.72</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="55">
+        <v>93.84</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57">
+        <v>97.32</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="23">
+        <v>95.55</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="27">
+        <v>68.44</v>
+      </c>
+      <c r="L5" s="29"/>
+      <c r="M5" s="55">
+        <v>0.08</v>
+      </c>
+      <c r="N5" s="56"/>
+      <c r="O5" s="57">
+        <v>0.65</v>
+      </c>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="43">
+        <v>150</v>
+      </c>
+      <c r="R5" s="44">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="27">
+        <v>96.1</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="55">
+        <v>29.17</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57">
+        <v>12.28</v>
+      </c>
+      <c r="H6" s="56"/>
+      <c r="I6" s="23">
+        <v>17.28</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="27">
+        <v>57.64</v>
+      </c>
+      <c r="L6" s="29"/>
+      <c r="M6" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="43">
+        <v>1659</v>
+      </c>
+      <c r="R6" s="44">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="27">
+        <v>94.11</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="55">
+        <v>23.4</v>
+      </c>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57">
+        <v>14.47</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="23">
+        <v>17.89</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="27">
+        <v>57.42</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="55">
+        <v>0.06</v>
+      </c>
+      <c r="N7" s="56"/>
+      <c r="O7" s="57">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="43">
+        <v>1640</v>
+      </c>
+      <c r="R7" s="44">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="27">
+        <v>98.25</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="57">
+        <v>98.77</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57">
+        <v>99.47</v>
+      </c>
+      <c r="H8" s="56"/>
+      <c r="I8" s="27">
+        <v>99.12</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="27">
+        <v>63.84</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="N8" s="56"/>
+      <c r="O8" s="57">
+        <v>0.61</v>
+      </c>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="44">
+        <v>27</v>
+      </c>
+      <c r="R8" s="44">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="27">
+        <v>97.14</v>
+      </c>
+      <c r="D10" s="29">
+        <f>AVERAGE(C10:C14)</f>
+        <v>95.594000000000008</v>
+      </c>
+      <c r="E10" s="57">
+        <v>98.09</v>
+      </c>
+      <c r="F10" s="56">
+        <f>AVERAGE(E10:E14)</f>
+        <v>69.316000000000003</v>
+      </c>
+      <c r="G10" s="57">
+        <v>98.56</v>
+      </c>
+      <c r="H10" s="56">
+        <f>AVERAGE(G10:G14)</f>
+        <v>64.653999999999996</v>
+      </c>
+      <c r="I10" s="27">
+        <v>98.33</v>
+      </c>
+      <c r="J10" s="29">
+        <f>AVERAGE(I10:I14)</f>
+        <v>66.054000000000002</v>
+      </c>
+      <c r="K10" s="27">
+        <v>94.29</v>
+      </c>
+      <c r="L10" s="29">
+        <f>AVERAGE(K10:K14)</f>
+        <v>69.132000000000005</v>
+      </c>
+      <c r="M10" s="57">
+        <v>0.03</v>
+      </c>
+      <c r="N10" s="56">
+        <f>AVERAGE(M10:M14)</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O10" s="57">
+        <v>0.94</v>
+      </c>
+      <c r="P10" s="56">
+        <f>AVERAGE(O10:O14)</f>
+        <v>0.67</v>
+      </c>
+      <c r="Q10" s="44">
+        <v>255</v>
+      </c>
+      <c r="R10" s="44">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="27">
+        <v>91.84</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="57">
+        <v>94.23</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57">
+        <v>97</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="27">
+        <v>95.59</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="27">
+        <v>70.239999999999995</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="57">
+        <v>0.08</v>
+      </c>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57">
+        <v>0.67</v>
+      </c>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="44">
+        <v>150</v>
+      </c>
+      <c r="R11" s="44">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="27">
+        <v>95.98</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="57">
+        <v>31.25</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57">
+        <v>17.54</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="27">
+        <v>22.47</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="27">
+        <v>60.2</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="44">
+        <v>1659</v>
+      </c>
+      <c r="R12" s="44">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="27">
+        <v>94.58</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="57">
+        <v>24.24</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57">
+        <v>10.53</v>
+      </c>
+      <c r="H13" s="56"/>
+      <c r="I13" s="27">
+        <v>14.68</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="27">
+        <v>55.94</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="44">
+        <v>1640</v>
+      </c>
+      <c r="R13" s="44">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="27">
+        <v>98.43</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="57">
+        <v>98.77</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57">
+        <v>99.64</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="27">
+        <v>99.2</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="27">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57">
+        <v>0.61</v>
+      </c>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="44">
+        <v>27</v>
+      </c>
+      <c r="R14" s="44">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="53"/>
+      <c r="I17" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="35"/>
+      <c r="M17" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="47"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="27">
+        <v>97.03</v>
+      </c>
+      <c r="D19" s="29">
+        <f>AVERAGE(C19:C23)</f>
+        <v>95.384</v>
+      </c>
+      <c r="E19" s="57">
+        <v>97.7</v>
+      </c>
+      <c r="F19" s="56">
+        <f>AVERAGE(E19:E23)</f>
+        <v>73.945999999999998</v>
+      </c>
+      <c r="G19" s="57">
+        <v>98.84</v>
+      </c>
+      <c r="H19" s="56">
+        <f>AVERAGE(G19:G23)</f>
+        <v>71.206000000000003</v>
+      </c>
+      <c r="I19" s="27">
+        <v>98.27</v>
+      </c>
+      <c r="J19" s="29">
+        <f>AVERAGE(I19:I23)</f>
+        <v>72.405999999999992</v>
+      </c>
+      <c r="K19" s="27">
+        <v>93.94</v>
+      </c>
+      <c r="L19" s="29">
+        <f>AVERAGE(K19:K23)</f>
+        <v>73.05</v>
+      </c>
+      <c r="M19" s="57">
+        <v>0.03</v>
+      </c>
+      <c r="N19" s="56">
+        <f>AVERAGE(M19:M23)</f>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="O19" s="57">
+        <v>0.93</v>
+      </c>
+      <c r="P19" s="56">
+        <f>AVERAGE(O19:O23)</f>
+        <v>0.72200000000000009</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>254</v>
+      </c>
+      <c r="R19" s="28">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="27">
+        <v>91.2</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="57">
+        <v>95.32</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57">
+        <v>95.14</v>
+      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="27">
+        <v>95.23</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="27">
+        <v>69.13</v>
+      </c>
+      <c r="L20" s="29"/>
+      <c r="M20" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57">
+        <v>0.69</v>
+      </c>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="28">
+        <v>131</v>
+      </c>
+      <c r="R20" s="28">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="27">
+        <v>95.45</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="57">
+        <v>32.61</v>
+      </c>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57">
+        <v>24.19</v>
+      </c>
+      <c r="H21" s="56"/>
+      <c r="I21" s="27">
+        <v>27.78</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="27">
+        <v>62.72</v>
+      </c>
+      <c r="L21" s="29"/>
+      <c r="M21" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="N21" s="56"/>
+      <c r="O21" s="57">
+        <v>0.61</v>
+      </c>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="28">
+        <v>1654</v>
+      </c>
+      <c r="R21" s="28">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="27">
+        <v>94.93</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="57">
+        <v>44.93</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57">
+        <v>38.75</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="27">
+        <v>41.61</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="27">
+        <v>69.48</v>
+      </c>
+      <c r="L22" s="29"/>
+      <c r="M22" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="N22" s="56"/>
+      <c r="O22" s="57">
+        <v>0.68</v>
+      </c>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="28">
+        <v>1636</v>
+      </c>
+      <c r="R22" s="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="27">
+        <v>98.31</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="57">
+        <v>99.17</v>
+      </c>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57">
+        <v>99.11</v>
+      </c>
+      <c r="H23" s="56"/>
+      <c r="I23" s="27">
+        <v>99.14</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="27">
+        <v>69.98</v>
+      </c>
+      <c r="L23" s="29"/>
+      <c r="M23" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="N23" s="56"/>
+      <c r="O23" s="57">
+        <v>0.7</v>
+      </c>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="28">
+        <v>24</v>
+      </c>
+      <c r="R23" s="28">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="27">
+        <v>96.91</v>
+      </c>
+      <c r="D25" s="29">
+        <f>AVERAGE(C25:C29)</f>
+        <v>95.596000000000004</v>
+      </c>
+      <c r="E25" s="57">
+        <v>97.7</v>
+      </c>
+      <c r="F25" s="56">
+        <f>AVERAGE(E25:E29)</f>
+        <v>74.703999999999994</v>
+      </c>
+      <c r="G25" s="57">
+        <v>98.7</v>
+      </c>
+      <c r="H25" s="56">
+        <f>AVERAGE(G25:G29)</f>
+        <v>71.481999999999999</v>
+      </c>
+      <c r="I25" s="27">
+        <v>98.2</v>
+      </c>
+      <c r="J25" s="29">
+        <f>AVERAGE(I25:I29)</f>
+        <v>72.646000000000001</v>
+      </c>
+      <c r="K25" s="27">
+        <v>93.72</v>
+      </c>
+      <c r="L25" s="29">
+        <f>AVERAGE(K25:K29)</f>
+        <v>72.061999999999998</v>
+      </c>
+      <c r="M25" s="57">
+        <v>0.03</v>
+      </c>
+      <c r="N25" s="56">
+        <f>AVERAGE(M25:M29)</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O25" s="57">
+        <v>0.93</v>
+      </c>
+      <c r="P25" s="56">
+        <f>AVERAGE(O25:O29)</f>
+        <v>0.70600000000000007</v>
+      </c>
+      <c r="Q25" s="28">
+        <v>254</v>
+      </c>
+      <c r="R25" s="28">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="27">
+        <v>92.02</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="57">
+        <v>94.69</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57">
+        <v>96.78</v>
+      </c>
+      <c r="H26" s="56"/>
+      <c r="I26" s="27">
+        <v>95.73</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="27">
+        <v>67.69</v>
+      </c>
+      <c r="L26" s="29"/>
+      <c r="M26" s="57">
+        <v>0.08</v>
+      </c>
+      <c r="N26" s="56"/>
+      <c r="O26" s="57">
+        <v>0.66</v>
+      </c>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="28">
+        <v>131</v>
+      </c>
+      <c r="R26" s="28">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
+      <c r="B27" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="27">
+        <v>95.92</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="57">
+        <v>38.89</v>
+      </c>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57">
+        <v>22.58</v>
+      </c>
+      <c r="H27" s="56"/>
+      <c r="I27" s="27">
+        <v>28.57</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="27">
+        <v>63.24</v>
+      </c>
+      <c r="L27" s="29"/>
+      <c r="M27" s="57">
+        <v>0.04</v>
+      </c>
+      <c r="N27" s="56"/>
+      <c r="O27" s="57">
+        <v>0.61</v>
+      </c>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="28">
+        <v>1654</v>
+      </c>
+      <c r="R27" s="28">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="27">
+        <v>94.76</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="57">
+        <v>43.24</v>
+      </c>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57">
+        <v>40</v>
+      </c>
+      <c r="H28" s="56"/>
+      <c r="I28" s="27">
+        <v>41.56</v>
+      </c>
+      <c r="J28" s="29"/>
+      <c r="K28" s="27">
+        <v>69.41</v>
+      </c>
+      <c r="L28" s="29"/>
+      <c r="M28" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="N28" s="56"/>
+      <c r="O28" s="57">
+        <v>0.69</v>
+      </c>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="28">
+        <v>1636</v>
+      </c>
+      <c r="R28" s="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="27">
+        <v>98.37</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="57">
+        <v>99</v>
+      </c>
+      <c r="F29" s="56"/>
+      <c r="G29" s="57">
+        <v>99.35</v>
+      </c>
+      <c r="H29" s="56"/>
+      <c r="I29" s="27">
+        <v>99.17</v>
+      </c>
+      <c r="J29" s="29"/>
+      <c r="K29" s="27">
+        <v>66.25</v>
+      </c>
+      <c r="L29" s="29"/>
+      <c r="M29" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="N29" s="56"/>
+      <c r="O29" s="57">
+        <v>0.64</v>
+      </c>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="28">
+        <v>24</v>
+      </c>
+      <c r="R29" s="28">
+        <v>1692</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="P25:P29"/>
+    <mergeCell ref="P19:P23"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="N25:N29"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="N10:N14"/>
+    <mergeCell ref="P10:P14"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="P4:P8"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA5F12F-2441-4040-BB33-B19FF2F6A5EC}">
+  <dimension ref="A14:R160"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R13" sqref="A1:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="12.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.21875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+    </row>
+    <row r="28" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+    </row>
+    <row r="29" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+    </row>
+    <row r="30" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+    </row>
+    <row r="31" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+    </row>
+    <row r="32" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+    </row>
+    <row r="65" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+    </row>
+    <row r="66" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+    </row>
+    <row r="67" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+    </row>
+    <row r="68" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+    </row>
+    <row r="69" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+    </row>
+    <row r="70" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+    </row>
+    <row r="71" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+    </row>
+    <row r="72" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+    </row>
+    <row r="73" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+    </row>
+    <row r="74" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+    </row>
+    <row r="75" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+    </row>
+    <row r="76" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+    </row>
+    <row r="77" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+    </row>
+    <row r="78" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+    </row>
+    <row r="79" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+    </row>
+    <row r="80" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="25"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="25"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="25"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="25"/>
+      <c r="P95" s="25"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="25"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="25"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="25"/>
+      <c r="P98" s="25"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="25"/>
+      <c r="N99" s="25"/>
+      <c r="O99" s="25"/>
+      <c r="P99" s="25"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="25"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="25"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="25"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="25"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+    </row>
+    <row r="103" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+    </row>
+    <row r="104" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="25"/>
+    </row>
+    <row r="105" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="25"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="25"/>
+      <c r="N105" s="25"/>
+      <c r="O105" s="25"/>
+      <c r="P105" s="25"/>
+    </row>
+    <row r="106" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="25"/>
+      <c r="L106" s="25"/>
+      <c r="M106" s="25"/>
+      <c r="N106" s="25"/>
+      <c r="O106" s="25"/>
+      <c r="P106" s="25"/>
+    </row>
+    <row r="107" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="25"/>
+      <c r="L107" s="25"/>
+      <c r="M107" s="25"/>
+      <c r="N107" s="25"/>
+      <c r="O107" s="25"/>
+      <c r="P107" s="25"/>
+    </row>
+    <row r="108" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="25"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="25"/>
+    </row>
+    <row r="109" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="25"/>
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+    </row>
+    <row r="110" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+    </row>
+    <row r="111" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="25"/>
+      <c r="N111" s="25"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="25"/>
+    </row>
+    <row r="112" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="25"/>
+      <c r="L112" s="25"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="25"/>
+      <c r="O112" s="25"/>
+      <c r="P112" s="25"/>
+    </row>
+    <row r="113" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="25"/>
+      <c r="L113" s="25"/>
+      <c r="M113" s="25"/>
+      <c r="N113" s="25"/>
+      <c r="O113" s="25"/>
+      <c r="P113" s="25"/>
+    </row>
+    <row r="114" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="25"/>
+      <c r="L114" s="25"/>
+      <c r="M114" s="25"/>
+      <c r="N114" s="25"/>
+      <c r="O114" s="25"/>
+      <c r="P114" s="25"/>
+    </row>
+    <row r="115" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="25"/>
+      <c r="L115" s="25"/>
+      <c r="M115" s="25"/>
+      <c r="N115" s="25"/>
+      <c r="O115" s="25"/>
+      <c r="P115" s="25"/>
+    </row>
+    <row r="116" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="25"/>
+      <c r="L116" s="25"/>
+      <c r="M116" s="25"/>
+      <c r="N116" s="25"/>
+      <c r="O116" s="25"/>
+      <c r="P116" s="25"/>
+    </row>
+    <row r="117" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="25"/>
+      <c r="L117" s="25"/>
+      <c r="M117" s="25"/>
+      <c r="N117" s="25"/>
+      <c r="O117" s="25"/>
+      <c r="P117" s="25"/>
+    </row>
+    <row r="118" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="25"/>
+      <c r="L118" s="25"/>
+      <c r="M118" s="25"/>
+      <c r="N118" s="25"/>
+      <c r="O118" s="25"/>
+      <c r="P118" s="25"/>
+    </row>
+    <row r="119" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="25"/>
+      <c r="M119" s="25"/>
+      <c r="N119" s="25"/>
+      <c r="O119" s="25"/>
+      <c r="P119" s="25"/>
+    </row>
+    <row r="120" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="25"/>
+      <c r="K120" s="25"/>
+      <c r="L120" s="25"/>
+      <c r="M120" s="25"/>
+      <c r="N120" s="25"/>
+      <c r="O120" s="25"/>
+      <c r="P120" s="25"/>
+    </row>
+    <row r="121" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="25"/>
+      <c r="K121" s="25"/>
+      <c r="L121" s="25"/>
+      <c r="M121" s="25"/>
+      <c r="N121" s="25"/>
+      <c r="O121" s="25"/>
+      <c r="P121" s="25"/>
+    </row>
+    <row r="122" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="25"/>
+      <c r="K122" s="25"/>
+      <c r="L122" s="25"/>
+      <c r="M122" s="25"/>
+      <c r="N122" s="25"/>
+      <c r="O122" s="25"/>
+      <c r="P122" s="25"/>
+    </row>
+    <row r="123" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="25"/>
+      <c r="K123" s="25"/>
+      <c r="L123" s="25"/>
+      <c r="M123" s="25"/>
+      <c r="N123" s="25"/>
+      <c r="O123" s="25"/>
+      <c r="P123" s="25"/>
+    </row>
+    <row r="124" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="25"/>
+      <c r="L124" s="25"/>
+      <c r="M124" s="25"/>
+      <c r="N124" s="25"/>
+      <c r="O124" s="25"/>
+      <c r="P124" s="25"/>
+    </row>
+    <row r="125" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="25"/>
+      <c r="M125" s="25"/>
+      <c r="N125" s="25"/>
+      <c r="O125" s="25"/>
+      <c r="P125" s="25"/>
+    </row>
+    <row r="126" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="25"/>
+      <c r="K126" s="25"/>
+      <c r="L126" s="25"/>
+      <c r="M126" s="25"/>
+      <c r="N126" s="25"/>
+      <c r="O126" s="25"/>
+      <c r="P126" s="25"/>
+    </row>
+    <row r="127" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="25"/>
+      <c r="L127" s="25"/>
+      <c r="M127" s="25"/>
+      <c r="N127" s="25"/>
+      <c r="O127" s="25"/>
+      <c r="P127" s="25"/>
+    </row>
+    <row r="128" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="25"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="25"/>
+      <c r="O128" s="25"/>
+      <c r="P128" s="25"/>
+    </row>
+    <row r="129" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="25"/>
+      <c r="K129" s="25"/>
+      <c r="L129" s="25"/>
+      <c r="M129" s="25"/>
+      <c r="N129" s="25"/>
+      <c r="O129" s="25"/>
+      <c r="P129" s="25"/>
+    </row>
+    <row r="130" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="25"/>
+      <c r="L130" s="25"/>
+      <c r="M130" s="25"/>
+      <c r="N130" s="25"/>
+      <c r="O130" s="25"/>
+      <c r="P130" s="25"/>
+    </row>
+    <row r="131" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C131" s="25"/>
+      <c r="D131" s="25"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="25"/>
+      <c r="K131" s="25"/>
+      <c r="L131" s="25"/>
+      <c r="M131" s="25"/>
+      <c r="N131" s="25"/>
+      <c r="O131" s="25"/>
+      <c r="P131" s="25"/>
+    </row>
+    <row r="132" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="25"/>
+      <c r="K132" s="25"/>
+      <c r="L132" s="25"/>
+      <c r="M132" s="25"/>
+      <c r="N132" s="25"/>
+      <c r="O132" s="25"/>
+      <c r="P132" s="25"/>
+    </row>
+    <row r="133" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="25"/>
+      <c r="K133" s="25"/>
+      <c r="L133" s="25"/>
+      <c r="M133" s="25"/>
+      <c r="N133" s="25"/>
+      <c r="O133" s="25"/>
+      <c r="P133" s="25"/>
+    </row>
+    <row r="134" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="25"/>
+      <c r="K134" s="25"/>
+      <c r="L134" s="25"/>
+      <c r="M134" s="25"/>
+      <c r="N134" s="25"/>
+      <c r="O134" s="25"/>
+      <c r="P134" s="25"/>
+    </row>
+    <row r="135" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="25"/>
+      <c r="K135" s="25"/>
+      <c r="L135" s="25"/>
+      <c r="M135" s="25"/>
+      <c r="N135" s="25"/>
+      <c r="O135" s="25"/>
+      <c r="P135" s="25"/>
+    </row>
+    <row r="136" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="25"/>
+      <c r="J136" s="25"/>
+      <c r="K136" s="25"/>
+      <c r="L136" s="25"/>
+      <c r="M136" s="25"/>
+      <c r="N136" s="25"/>
+      <c r="O136" s="25"/>
+      <c r="P136" s="25"/>
+    </row>
+    <row r="137" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="25"/>
+      <c r="K137" s="25"/>
+      <c r="L137" s="25"/>
+      <c r="M137" s="25"/>
+      <c r="N137" s="25"/>
+      <c r="O137" s="25"/>
+      <c r="P137" s="25"/>
+    </row>
+    <row r="138" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="25"/>
+      <c r="K138" s="25"/>
+      <c r="L138" s="25"/>
+      <c r="M138" s="25"/>
+      <c r="N138" s="25"/>
+      <c r="O138" s="25"/>
+      <c r="P138" s="25"/>
+    </row>
+    <row r="139" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="25"/>
+      <c r="L139" s="25"/>
+      <c r="M139" s="25"/>
+      <c r="N139" s="25"/>
+      <c r="O139" s="25"/>
+      <c r="P139" s="25"/>
+    </row>
+    <row r="140" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="25"/>
+      <c r="K140" s="25"/>
+      <c r="L140" s="25"/>
+      <c r="M140" s="25"/>
+      <c r="N140" s="25"/>
+      <c r="O140" s="25"/>
+      <c r="P140" s="25"/>
+    </row>
+    <row r="141" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="25"/>
+      <c r="K141" s="25"/>
+      <c r="L141" s="25"/>
+      <c r="M141" s="25"/>
+      <c r="N141" s="25"/>
+      <c r="O141" s="25"/>
+      <c r="P141" s="25"/>
+    </row>
+    <row r="142" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25"/>
+      <c r="J142" s="25"/>
+      <c r="K142" s="25"/>
+      <c r="L142" s="25"/>
+      <c r="M142" s="25"/>
+      <c r="N142" s="25"/>
+      <c r="O142" s="25"/>
+      <c r="P142" s="25"/>
+    </row>
+    <row r="143" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="25"/>
+      <c r="I143" s="25"/>
+      <c r="J143" s="25"/>
+      <c r="K143" s="25"/>
+      <c r="L143" s="25"/>
+      <c r="M143" s="25"/>
+      <c r="N143" s="25"/>
+      <c r="O143" s="25"/>
+      <c r="P143" s="25"/>
+    </row>
+    <row r="144" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
+      <c r="F144" s="25"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="25"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="25"/>
+      <c r="K144" s="25"/>
+      <c r="L144" s="25"/>
+      <c r="M144" s="25"/>
+      <c r="N144" s="25"/>
+      <c r="O144" s="25"/>
+      <c r="P144" s="25"/>
+    </row>
+    <row r="145" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C145" s="25"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="25"/>
+      <c r="F145" s="25"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="25"/>
+      <c r="K145" s="25"/>
+      <c r="L145" s="25"/>
+      <c r="M145" s="25"/>
+      <c r="N145" s="25"/>
+      <c r="O145" s="25"/>
+      <c r="P145" s="25"/>
+    </row>
+    <row r="146" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C146" s="25"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="25"/>
+      <c r="K146" s="25"/>
+      <c r="L146" s="25"/>
+      <c r="M146" s="25"/>
+      <c r="N146" s="25"/>
+      <c r="O146" s="25"/>
+      <c r="P146" s="25"/>
+    </row>
+    <row r="147" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C147" s="25"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="25"/>
+      <c r="K147" s="25"/>
+      <c r="L147" s="25"/>
+      <c r="M147" s="25"/>
+      <c r="N147" s="25"/>
+      <c r="O147" s="25"/>
+      <c r="P147" s="25"/>
+    </row>
+    <row r="148" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C148" s="25"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="25"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="25"/>
+      <c r="I148" s="25"/>
+      <c r="J148" s="25"/>
+      <c r="K148" s="25"/>
+      <c r="L148" s="25"/>
+      <c r="M148" s="25"/>
+      <c r="N148" s="25"/>
+      <c r="O148" s="25"/>
+      <c r="P148" s="25"/>
+    </row>
+    <row r="149" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C149" s="25"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="25"/>
+      <c r="K149" s="25"/>
+      <c r="L149" s="25"/>
+      <c r="M149" s="25"/>
+      <c r="N149" s="25"/>
+      <c r="O149" s="25"/>
+      <c r="P149" s="25"/>
+    </row>
+    <row r="150" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C150" s="25"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="25"/>
+      <c r="K150" s="25"/>
+      <c r="L150" s="25"/>
+      <c r="M150" s="25"/>
+      <c r="N150" s="25"/>
+      <c r="O150" s="25"/>
+      <c r="P150" s="25"/>
+    </row>
+    <row r="151" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C151" s="25"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="25"/>
+      <c r="H151" s="25"/>
+      <c r="I151" s="25"/>
+      <c r="J151" s="25"/>
+      <c r="K151" s="25"/>
+      <c r="L151" s="25"/>
+      <c r="M151" s="25"/>
+      <c r="N151" s="25"/>
+      <c r="O151" s="25"/>
+      <c r="P151" s="25"/>
+    </row>
+    <row r="152" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C152" s="25"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
+      <c r="F152" s="25"/>
+      <c r="G152" s="25"/>
+      <c r="H152" s="25"/>
+      <c r="I152" s="25"/>
+      <c r="J152" s="25"/>
+      <c r="K152" s="25"/>
+      <c r="L152" s="25"/>
+      <c r="M152" s="25"/>
+      <c r="N152" s="25"/>
+      <c r="O152" s="25"/>
+      <c r="P152" s="25"/>
+    </row>
+    <row r="153" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C153" s="25"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="25"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
+      <c r="I153" s="25"/>
+      <c r="J153" s="25"/>
+      <c r="K153" s="25"/>
+      <c r="L153" s="25"/>
+      <c r="M153" s="25"/>
+      <c r="N153" s="25"/>
+      <c r="O153" s="25"/>
+      <c r="P153" s="25"/>
+    </row>
+    <row r="154" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C154" s="25"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="25"/>
+      <c r="K154" s="25"/>
+      <c r="L154" s="25"/>
+      <c r="M154" s="25"/>
+      <c r="N154" s="25"/>
+      <c r="O154" s="25"/>
+      <c r="P154" s="25"/>
+    </row>
+    <row r="155" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="25"/>
+      <c r="K155" s="25"/>
+      <c r="L155" s="25"/>
+      <c r="M155" s="25"/>
+      <c r="N155" s="25"/>
+      <c r="O155" s="25"/>
+      <c r="P155" s="25"/>
+    </row>
+    <row r="156" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C156" s="25"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="25"/>
+      <c r="K156" s="25"/>
+      <c r="L156" s="25"/>
+      <c r="M156" s="25"/>
+      <c r="N156" s="25"/>
+      <c r="O156" s="25"/>
+      <c r="P156" s="25"/>
+    </row>
+    <row r="157" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C157" s="25"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="25"/>
+      <c r="K157" s="25"/>
+      <c r="L157" s="25"/>
+      <c r="M157" s="25"/>
+      <c r="N157" s="25"/>
+      <c r="O157" s="25"/>
+      <c r="P157" s="25"/>
+    </row>
+    <row r="158" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C158" s="25"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="25"/>
+      <c r="K158" s="25"/>
+      <c r="L158" s="25"/>
+      <c r="M158" s="25"/>
+      <c r="N158" s="25"/>
+      <c r="O158" s="25"/>
+      <c r="P158" s="25"/>
+    </row>
+    <row r="159" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C159" s="25"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25"/>
+      <c r="F159" s="25"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="25"/>
+      <c r="K159" s="25"/>
+      <c r="L159" s="25"/>
+      <c r="M159" s="25"/>
+      <c r="N159" s="25"/>
+      <c r="O159" s="25"/>
+      <c r="P159" s="25"/>
+    </row>
+    <row r="160" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C160" s="25"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
+      <c r="J160" s="25"/>
+      <c r="K160" s="25"/>
+      <c r="L160" s="25"/>
+      <c r="M160" s="25"/>
+      <c r="N160" s="25"/>
+      <c r="O160" s="25"/>
+      <c r="P160" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596A69E5-9006-4686-8012-965366EB83CB}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -832,50 +4322,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22" t="s">
+      <c r="N1" s="34"/>
+      <c r="O1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="20" t="s">
         <v>76</v>
       </c>
@@ -918,11 +4408,11 @@
       <c r="P2" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -931,49 +4421,49 @@
       <c r="C3" s="11">
         <v>81.349999999999994</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="29">
         <f>AVERAGE(C3:C7)</f>
         <v>91.710000000000008</v>
       </c>
       <c r="E3" s="11">
         <v>81.650000000000006</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="29">
         <f>AVERAGE(E3:E7)</f>
         <v>79.835999999999999</v>
       </c>
       <c r="G3" s="11">
         <v>99.54</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="29">
         <f>AVERAGE(G3:G7)</f>
         <v>70.068000000000012</v>
       </c>
       <c r="I3" s="11">
         <v>89.71</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="29">
         <f>AVERAGE(I3:I7)</f>
         <v>70.311999999999998</v>
       </c>
       <c r="K3" s="11">
         <v>45.1</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="29">
         <f>AVERAGE(K3:K7)</f>
         <v>55.02</v>
       </c>
       <c r="M3" s="11">
         <v>0.19</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="29">
         <f>AVERAGE(M3:M7)</f>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="O3" s="11">
         <v>0.5</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="29">
         <f>AVERAGE(O3:O7)</f>
         <v>0.55000000000000004</v>
       </c>
@@ -985,38 +4475,38 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="11">
         <v>87.05</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="11">
         <v>87.71</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="11">
         <v>99.12</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="11">
         <v>93.06</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="11">
         <v>48.06</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="29"/>
       <c r="M4" s="11">
         <v>0.13</v>
       </c>
-      <c r="N4" s="23"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="11">
         <v>0.5</v>
       </c>
-      <c r="P4" s="23"/>
+      <c r="P4" s="29"/>
       <c r="Q4" s="9">
         <v>1331</v>
       </c>
@@ -1025,38 +4515,38 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="11">
         <v>98.48</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="11">
         <v>66.930000000000007</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="11">
         <v>41.26</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="11">
         <v>51.05</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="11">
         <v>75.14</v>
       </c>
-      <c r="L5" s="23"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="11">
         <v>0.02</v>
       </c>
-      <c r="N5" s="23"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="11">
         <v>0.7</v>
       </c>
-      <c r="P5" s="23"/>
+      <c r="P5" s="29"/>
       <c r="Q5" s="9">
         <v>10546</v>
       </c>
@@ -1065,38 +4555,38 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="11">
         <v>92.09</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="11">
         <v>63.27</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="11">
         <v>10.46</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="11">
         <v>17.95</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="11">
         <v>56.9</v>
       </c>
-      <c r="L6" s="23"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="11">
         <v>0.08</v>
       </c>
-      <c r="N6" s="23"/>
+      <c r="N6" s="29"/>
       <c r="O6" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P6" s="23"/>
+      <c r="P6" s="29"/>
       <c r="Q6" s="9">
         <v>9863</v>
       </c>
@@ -1105,38 +4595,38 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C7" s="11">
         <v>99.58</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="11">
         <v>99.62</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="11">
         <v>99.96</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="11">
         <v>99.79</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="11">
         <v>49.9</v>
       </c>
-      <c r="L7" s="23"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="11">
         <v>0</v>
       </c>
-      <c r="N7" s="23"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="11">
         <v>0.5</v>
       </c>
-      <c r="P7" s="23"/>
+      <c r="P7" s="29"/>
       <c r="Q7" s="9">
         <v>41</v>
       </c>
@@ -1145,7 +4635,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="36" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -1154,49 +4644,49 @@
       <c r="C8" s="21">
         <v>81.34</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="29">
         <f>AVERAGE(C8:C12)</f>
         <v>91.68</v>
       </c>
       <c r="E8" s="21">
         <v>81.67</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="29">
         <f>AVERAGE(E8:E12)</f>
         <v>80.873999999999995</v>
       </c>
       <c r="G8" s="21">
         <v>99.49</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="29">
         <f>AVERAGE(G8:G12)</f>
         <v>69.888000000000005</v>
       </c>
       <c r="I8" s="21">
         <v>89.7</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="29">
         <f>AVERAGE(I8:I12)</f>
         <v>70.212000000000018</v>
       </c>
       <c r="K8" s="21">
         <v>45.3</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="29">
         <f>AVERAGE(K8:K12)</f>
         <v>55.274000000000001</v>
       </c>
       <c r="M8" s="21">
         <v>0.19</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="29">
         <f>AVERAGE(M8:M12)</f>
         <v>8.6000000000000007E-2</v>
       </c>
       <c r="O8" s="21">
         <v>0.5</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="29">
         <f>AVERAGE(O8:O12)</f>
         <v>0.55199999999999994</v>
       </c>
@@ -1208,38 +4698,38 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="21">
         <v>86.93</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="21">
         <v>87.83</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="21">
         <v>98.77</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="21">
         <v>92.98</v>
       </c>
-      <c r="J9" s="23"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="21">
         <v>49.31</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="21">
         <v>0.13</v>
       </c>
-      <c r="N9" s="23"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="21">
         <v>0.51</v>
       </c>
-      <c r="P9" s="23"/>
+      <c r="P9" s="29"/>
       <c r="Q9" s="21">
         <v>1331</v>
       </c>
@@ -1248,38 +4738,38 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="21" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="21">
         <v>98.46</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="21">
         <v>65.62</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="21">
         <v>40.78</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="21">
         <v>50.3</v>
       </c>
-      <c r="J10" s="23"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="21">
         <v>74.760000000000005</v>
       </c>
-      <c r="L10" s="23"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="21">
         <v>0.02</v>
       </c>
-      <c r="N10" s="23"/>
+      <c r="N10" s="29"/>
       <c r="O10" s="21">
         <v>0.7</v>
       </c>
-      <c r="P10" s="23"/>
+      <c r="P10" s="29"/>
       <c r="Q10" s="21">
         <v>10546</v>
       </c>
@@ -1288,38 +4778,38 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="21">
         <v>92.22</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="21">
         <v>69.63</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="21">
         <v>10.57</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="21">
         <v>18.36</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="21">
         <v>57.14</v>
       </c>
-      <c r="L11" s="23"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="21">
         <v>0.08</v>
       </c>
-      <c r="N11" s="23"/>
+      <c r="N11" s="29"/>
       <c r="O11" s="21">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P11" s="23"/>
+      <c r="P11" s="29"/>
       <c r="Q11" s="21">
         <v>9863</v>
       </c>
@@ -1328,38 +4818,38 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="21" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="21">
         <v>99.45</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="21">
         <v>99.62</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="21">
         <v>99.83</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="21">
         <v>99.72</v>
       </c>
-      <c r="J12" s="23"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="21">
         <v>49.86</v>
       </c>
-      <c r="L12" s="23"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="21">
         <v>0.01</v>
       </c>
-      <c r="N12" s="23"/>
+      <c r="N12" s="29"/>
       <c r="O12" s="21">
         <v>0.5</v>
       </c>
-      <c r="P12" s="23"/>
+      <c r="P12" s="29"/>
       <c r="Q12" s="21">
         <v>41</v>
       </c>
@@ -1404,22 +4894,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="N8:N12"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="J8:J12"/>
     <mergeCell ref="H8:H12"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="P3:P7"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="J3:J7"/>
@@ -1427,6 +4907,16 @@
     <mergeCell ref="N3:N7"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="D3:D7"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="N8:N12"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -1437,7 +4927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F92BC9-F450-431B-9847-76447FA56B46}">
   <dimension ref="A1:V32"/>
   <sheetViews>
@@ -1462,54 +4952,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="28" t="s">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="13" t="s">
         <v>76</v>
       </c>
@@ -1546,21 +5036,21 @@
       <c r="P2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="36" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1569,42 +5059,42 @@
       <c r="E3" s="10">
         <v>41.32</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="29">
         <f>AVERAGE(E3:E7)</f>
         <v>86.940000000000012</v>
       </c>
       <c r="G3" s="10">
         <v>41.04</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="29">
         <f>AVERAGE(G3:G7)</f>
         <v>23.071999999999999</v>
       </c>
       <c r="I3" s="10">
         <v>92.87</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="29">
         <f>AVERAGE(I3:I7)</f>
         <v>27.908000000000005</v>
       </c>
       <c r="K3" s="10">
         <v>56.93</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="29">
         <f>AVERAGE(K3:K7)</f>
         <v>20.847999999999999</v>
       </c>
       <c r="M3" s="10">
         <v>32.46</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="29">
         <f>AVERAGE(M3:M7)</f>
         <v>50.886000000000003</v>
       </c>
       <c r="O3" s="10">
         <v>0.49</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="29">
         <f>AVERAGE(O3:O7)</f>
         <v>0.53999999999999992</v>
       </c>
@@ -1616,36 +5106,36 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="10">
         <v>98.88</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="10">
         <v>7.14</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="10">
         <v>3.03</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="10">
         <v>4.26</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="29"/>
       <c r="M4" s="10">
         <v>51.84</v>
       </c>
-      <c r="N4" s="23"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="10">
         <v>0.51</v>
       </c>
-      <c r="P4" s="23"/>
+      <c r="P4" s="29"/>
       <c r="Q4" s="9">
         <v>3967</v>
       </c>
@@ -1654,36 +5144,36 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="10">
         <v>96.8</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="10">
         <v>3.54</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="10">
         <v>17.39</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="10">
         <v>5.88</v>
       </c>
-      <c r="L5" s="23"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="10">
         <v>52.13</v>
       </c>
-      <c r="N5" s="23"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="P5" s="23"/>
+      <c r="P5" s="29"/>
       <c r="Q5" s="9">
         <v>3977</v>
       </c>
@@ -1692,36 +5182,36 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="10">
         <v>98.22</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="10">
         <v>63.64</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="10">
         <v>26.25</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="10">
         <v>37.17</v>
       </c>
-      <c r="L6" s="23"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="10">
         <v>68.13</v>
       </c>
-      <c r="N6" s="23"/>
+      <c r="N6" s="29"/>
       <c r="O6" s="10">
         <v>0.63</v>
       </c>
-      <c r="P6" s="23"/>
+      <c r="P6" s="29"/>
       <c r="Q6" s="9">
         <v>3920</v>
       </c>
@@ -1730,36 +5220,36 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="10">
         <v>99.48</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="10">
         <v>0</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="10">
         <v>0</v>
       </c>
-      <c r="L7" s="23"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="10">
         <v>49.87</v>
       </c>
-      <c r="N7" s="23"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="10">
         <v>0.5</v>
       </c>
-      <c r="P7" s="23"/>
+      <c r="P7" s="29"/>
       <c r="Q7" s="9">
         <v>3981</v>
       </c>
@@ -1768,9 +5258,9 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="24" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="36" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1779,42 +5269,42 @@
       <c r="E8" s="10">
         <v>41.55</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="29">
         <f>AVERAGE(E8:E12)</f>
         <v>87.534000000000006</v>
       </c>
       <c r="G8" s="10">
         <v>41.56</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="29">
         <f t="shared" ref="H8" si="0">AVERAGE(G8:G12)</f>
         <v>8.3120000000000012</v>
       </c>
       <c r="I8" s="10">
         <v>98.44</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="29">
         <f t="shared" ref="J8" si="1">AVERAGE(I8:I12)</f>
         <v>19.687999999999999</v>
       </c>
       <c r="K8" s="10">
         <v>58.44</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="29">
         <f t="shared" ref="L8" si="2">AVERAGE(K8:K12)</f>
         <v>11.687999999999999</v>
       </c>
       <c r="M8" s="10">
         <v>29.98</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="29">
         <f t="shared" ref="N8" si="3">AVERAGE(M8:M12)</f>
         <v>45.8</v>
       </c>
       <c r="O8" s="10">
         <v>0.5</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="29">
         <f t="shared" ref="P8" si="4">AVERAGE(O8:O12)</f>
         <v>0.5</v>
       </c>
@@ -1826,36 +5316,36 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="10">
         <v>99.18</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="10">
         <v>0</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="10">
         <v>0</v>
       </c>
-      <c r="J9" s="23"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="10">
         <v>0</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="10">
         <v>49.79</v>
       </c>
-      <c r="N9" s="23"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="10">
         <v>0.5</v>
       </c>
-      <c r="P9" s="23"/>
+      <c r="P9" s="29"/>
       <c r="Q9" s="9">
         <v>3967</v>
       </c>
@@ -1864,36 +5354,36 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="24"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="10">
         <v>99.42</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="10">
         <v>0</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="10">
         <v>0</v>
       </c>
-      <c r="J10" s="23"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="10">
         <v>0</v>
       </c>
-      <c r="L10" s="23"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="10">
         <v>49.86</v>
       </c>
-      <c r="N10" s="23"/>
+      <c r="N10" s="29"/>
       <c r="O10" s="10">
         <v>0.5</v>
       </c>
-      <c r="P10" s="23"/>
+      <c r="P10" s="29"/>
       <c r="Q10" s="9">
         <v>3977</v>
       </c>
@@ -1902,36 +5392,36 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="10">
         <v>98</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="14">
         <v>0</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="10">
         <v>0</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="10">
         <v>0</v>
       </c>
-      <c r="L11" s="23"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="10">
         <v>49.49</v>
       </c>
-      <c r="N11" s="23"/>
+      <c r="N11" s="29"/>
       <c r="O11" s="10">
         <v>0.5</v>
       </c>
-      <c r="P11" s="23"/>
+      <c r="P11" s="29"/>
       <c r="Q11" s="9">
         <v>3920</v>
       </c>
@@ -1941,36 +5431,36 @@
       <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="10">
         <v>99.52</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="10">
         <v>0</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="10">
         <v>0</v>
       </c>
-      <c r="J12" s="23"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="10">
         <v>0</v>
       </c>
-      <c r="L12" s="23"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="10">
         <v>49.88</v>
       </c>
-      <c r="N12" s="23"/>
+      <c r="N12" s="29"/>
       <c r="O12" s="10">
         <v>0.5</v>
       </c>
-      <c r="P12" s="23"/>
+      <c r="P12" s="29"/>
       <c r="Q12" s="9">
         <v>3981</v>
       </c>
@@ -1979,9 +5469,9 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="29" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="41" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -1990,42 +5480,42 @@
       <c r="E13" s="16">
         <v>60.25</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="37">
         <f>AVERAGE(E13:E17)</f>
         <v>91.092000000000013</v>
       </c>
       <c r="G13" s="16">
         <v>52.52</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="37">
         <f t="shared" ref="H13" si="5">AVERAGE(G13:G17)</f>
         <v>25.877999999999997</v>
       </c>
       <c r="I13" s="16">
         <v>49.94</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="37">
         <f t="shared" ref="J13" si="6">AVERAGE(I13:I17)</f>
         <v>25.095999999999997</v>
       </c>
       <c r="K13" s="16">
         <v>51.2</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="37">
         <f t="shared" ref="L13" si="7">AVERAGE(K13:K17)</f>
         <v>24.98</v>
       </c>
       <c r="M13" s="16">
         <v>58.83</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="37">
         <f t="shared" ref="N13" si="8">AVERAGE(M13:M17)</f>
         <v>58.891999999999996</v>
       </c>
       <c r="O13" s="16">
         <v>0.59</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="37">
         <f t="shared" ref="P13" si="9">AVERAGE(O13:O17)</f>
         <v>0.59199999999999997</v>
       </c>
@@ -2037,36 +5527,36 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="16">
         <v>99.05</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="16">
         <v>0</v>
       </c>
-      <c r="H14" s="26"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="16">
         <v>0</v>
       </c>
-      <c r="J14" s="26"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="16">
         <v>0</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="37"/>
       <c r="M14" s="16">
         <v>49.76</v>
       </c>
-      <c r="N14" s="26"/>
+      <c r="N14" s="37"/>
       <c r="O14" s="16">
         <v>0.5</v>
       </c>
-      <c r="P14" s="26"/>
+      <c r="P14" s="37"/>
       <c r="Q14" s="15">
         <v>3967</v>
       </c>
@@ -2075,36 +5565,36 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="16">
         <v>97.88</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="16">
         <v>4.41</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="16">
         <v>13.04</v>
       </c>
-      <c r="J15" s="26"/>
+      <c r="J15" s="37"/>
       <c r="K15" s="16">
         <v>6.59</v>
       </c>
-      <c r="L15" s="26"/>
+      <c r="L15" s="37"/>
       <c r="M15" s="16">
         <v>52.76</v>
       </c>
-      <c r="N15" s="26"/>
+      <c r="N15" s="37"/>
       <c r="O15" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="P15" s="26"/>
+      <c r="P15" s="37"/>
       <c r="Q15" s="15">
         <v>3977</v>
       </c>
@@ -2113,36 +5603,36 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="16">
         <v>98.78</v>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="16">
         <v>72.459999999999994</v>
       </c>
-      <c r="H16" s="26"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="16">
         <v>62.5</v>
       </c>
-      <c r="J16" s="26"/>
+      <c r="J16" s="37"/>
       <c r="K16" s="16">
         <v>67.11</v>
       </c>
-      <c r="L16" s="26"/>
+      <c r="L16" s="37"/>
       <c r="M16" s="16">
         <v>83.24</v>
       </c>
-      <c r="N16" s="26"/>
+      <c r="N16" s="37"/>
       <c r="O16" s="16">
         <v>0.81</v>
       </c>
-      <c r="P16" s="26"/>
+      <c r="P16" s="37"/>
       <c r="Q16" s="15">
         <v>3920</v>
       </c>
@@ -2151,36 +5641,36 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="16">
         <v>99.5</v>
       </c>
-      <c r="F17" s="26"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="16">
         <v>0</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="16">
         <v>0</v>
       </c>
-      <c r="J17" s="26"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="16">
         <v>0</v>
       </c>
-      <c r="L17" s="26"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="16">
         <v>49.87</v>
       </c>
-      <c r="N17" s="26"/>
+      <c r="N17" s="37"/>
       <c r="O17" s="16">
         <v>0.5</v>
       </c>
-      <c r="P17" s="26"/>
+      <c r="P17" s="37"/>
       <c r="Q17" s="15">
         <v>3981</v>
       </c>
@@ -2189,11 +5679,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="36" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -2202,42 +5692,42 @@
       <c r="E18" s="10">
         <v>41.32</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="29">
         <f>AVERAGE(E18:E22)</f>
         <v>87.177999999999997</v>
       </c>
       <c r="G18" s="10">
         <v>41.18</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="29">
         <f t="shared" ref="H18" si="10">AVERAGE(G18:G22)</f>
         <v>23.613999999999997</v>
       </c>
       <c r="I18" s="10">
         <v>94.67</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="29">
         <f t="shared" ref="J18" si="11">AVERAGE(I18:I22)</f>
         <v>25.673999999999999</v>
       </c>
       <c r="K18" s="10">
         <v>57.4</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="29">
         <f t="shared" ref="L18" si="12">AVERAGE(K18:K22)</f>
         <v>19.808</v>
       </c>
       <c r="M18" s="10">
         <v>31.59</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="29">
         <f t="shared" ref="N18" si="13">AVERAGE(M18:M22)</f>
         <v>50.208000000000006</v>
       </c>
       <c r="O18" s="10">
         <v>0.49</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="29">
         <f t="shared" ref="P18" si="14">AVERAGE(O18:O22)</f>
         <v>0.52800000000000002</v>
       </c>
@@ -2249,36 +5739,36 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="10">
         <v>99.05</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="10">
         <v>0</v>
       </c>
-      <c r="H19" s="23"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="10">
         <v>0</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="10">
         <v>0</v>
       </c>
-      <c r="L19" s="23"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="10">
         <v>49.76</v>
       </c>
-      <c r="N19" s="23"/>
+      <c r="N19" s="29"/>
       <c r="O19" s="10">
         <v>0.5</v>
       </c>
-      <c r="P19" s="23"/>
+      <c r="P19" s="29"/>
       <c r="Q19" s="9">
         <v>3967</v>
       </c>
@@ -2287,36 +5777,36 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="10">
         <v>97.75</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="10">
         <v>2.82</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="10">
         <v>4.26</v>
       </c>
-      <c r="L20" s="23"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="10">
         <v>51.56</v>
       </c>
-      <c r="N20" s="23"/>
+      <c r="N20" s="29"/>
       <c r="O20" s="10">
         <v>0.53</v>
       </c>
-      <c r="P20" s="23"/>
+      <c r="P20" s="29"/>
       <c r="Q20" s="9">
         <v>3977</v>
       </c>
@@ -2325,36 +5815,36 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="10">
         <v>98.32</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="10">
         <v>74.069999999999993</v>
       </c>
-      <c r="H21" s="23"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="10">
         <v>25</v>
       </c>
-      <c r="J21" s="23"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="10">
         <v>37.380000000000003</v>
       </c>
-      <c r="L21" s="23"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="10">
         <v>68.27</v>
       </c>
-      <c r="N21" s="23"/>
+      <c r="N21" s="29"/>
       <c r="O21" s="10">
         <v>0.62</v>
       </c>
-      <c r="P21" s="23"/>
+      <c r="P21" s="29"/>
       <c r="Q21" s="9">
         <v>3920</v>
       </c>
@@ -2363,36 +5853,36 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="10">
         <v>99.45</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="29"/>
       <c r="G22" s="10">
         <v>0</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="10">
         <v>0</v>
       </c>
-      <c r="J22" s="23"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="10">
         <v>0</v>
       </c>
-      <c r="L22" s="23"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="10">
         <v>49.86</v>
       </c>
-      <c r="N22" s="23"/>
+      <c r="N22" s="29"/>
       <c r="O22" s="10">
         <v>0.5</v>
       </c>
-      <c r="P22" s="23"/>
+      <c r="P22" s="29"/>
       <c r="Q22" s="9">
         <v>3981</v>
       </c>
@@ -2401,9 +5891,9 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="24" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="36" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -2412,42 +5902,42 @@
       <c r="E23" s="10">
         <v>41.5</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="29">
         <f>AVERAGE(E23:E27)</f>
         <v>87.527999999999992</v>
       </c>
       <c r="G23" s="10">
         <v>41.49</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="29">
         <f t="shared" ref="H23" si="15">AVERAGE(G23:G27)</f>
         <v>28.298000000000002</v>
       </c>
       <c r="I23" s="10">
         <v>97.78</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="29">
         <f t="shared" ref="J23" si="16">AVERAGE(I23:I27)</f>
         <v>19.806000000000001</v>
       </c>
       <c r="K23" s="10">
         <v>58.26</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="29">
         <f t="shared" ref="L23" si="17">AVERAGE(K23:K27)</f>
         <v>12.145999999999999</v>
       </c>
       <c r="M23" s="10">
         <v>30.26</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="29">
         <f t="shared" ref="N23" si="18">AVERAGE(M23:M27)</f>
         <v>46.106000000000002</v>
       </c>
       <c r="O23" s="10">
         <v>0.49</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P23" s="29">
         <f t="shared" ref="P23" si="19">AVERAGE(O23:O27)</f>
         <v>0.5</v>
       </c>
@@ -2459,36 +5949,36 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="10">
         <v>99.18</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="29"/>
       <c r="G24" s="10">
         <v>0</v>
       </c>
-      <c r="H24" s="23"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="10">
         <v>0</v>
       </c>
-      <c r="J24" s="23"/>
+      <c r="J24" s="29"/>
       <c r="K24" s="10">
         <v>0</v>
       </c>
-      <c r="L24" s="23"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="10">
         <v>49.79</v>
       </c>
-      <c r="N24" s="23"/>
+      <c r="N24" s="29"/>
       <c r="O24" s="10">
         <v>0.5</v>
       </c>
-      <c r="P24" s="23"/>
+      <c r="P24" s="29"/>
       <c r="Q24" s="9">
         <v>3967</v>
       </c>
@@ -2497,36 +5987,36 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="24"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="10">
         <v>99.42</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="23"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="10">
         <v>0</v>
       </c>
-      <c r="J25" s="23"/>
+      <c r="J25" s="29"/>
       <c r="K25" s="10">
         <v>0</v>
       </c>
-      <c r="L25" s="23"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="10">
         <v>49.86</v>
       </c>
-      <c r="N25" s="23"/>
+      <c r="N25" s="29"/>
       <c r="O25" s="10">
         <v>0.5</v>
       </c>
-      <c r="P25" s="23"/>
+      <c r="P25" s="29"/>
       <c r="Q25" s="9">
         <v>3977</v>
       </c>
@@ -2535,36 +6025,36 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="24"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="10">
         <v>98.02</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="29"/>
       <c r="G26" s="10">
         <v>100</v>
       </c>
-      <c r="H26" s="23"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="10">
         <v>1.25</v>
       </c>
-      <c r="J26" s="23"/>
+      <c r="J26" s="29"/>
       <c r="K26" s="10">
         <v>2.4700000000000002</v>
       </c>
-      <c r="L26" s="23"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="10">
         <v>50.74</v>
       </c>
-      <c r="N26" s="23"/>
+      <c r="N26" s="29"/>
       <c r="O26" s="10">
         <v>0.51</v>
       </c>
-      <c r="P26" s="23"/>
+      <c r="P26" s="29"/>
       <c r="Q26" s="9">
         <v>3920</v>
       </c>
@@ -2573,36 +6063,36 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="24"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="10">
         <v>99.52</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="29"/>
       <c r="G27" s="10">
         <v>0</v>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="10">
         <v>0</v>
       </c>
-      <c r="J27" s="23"/>
+      <c r="J27" s="29"/>
       <c r="K27" s="10">
         <v>0</v>
       </c>
-      <c r="L27" s="23"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="10">
         <v>49.88</v>
       </c>
-      <c r="N27" s="23"/>
+      <c r="N27" s="29"/>
       <c r="O27" s="10">
         <v>0.5</v>
       </c>
-      <c r="P27" s="23"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="9">
         <v>3981</v>
       </c>
@@ -2611,9 +6101,9 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="29" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="41" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="15" t="s">
@@ -2622,42 +6112,42 @@
       <c r="E28" s="16">
         <v>66.569999999999993</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="38">
         <f>AVERAGE(E28:E32)</f>
         <v>92.110000000000014</v>
       </c>
       <c r="G28" s="16">
         <v>62.14</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="38">
         <f t="shared" ref="H28" si="20">AVERAGE(G28:G32)</f>
         <v>29.123999999999995</v>
       </c>
       <c r="I28" s="16">
         <v>51.02</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="38">
         <f t="shared" ref="J28" si="21">AVERAGE(I28:I32)</f>
         <v>28.983999999999998</v>
       </c>
       <c r="K28" s="16">
         <v>56.03</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="38">
         <f t="shared" ref="L28" si="22">AVERAGE(K28:K32)</f>
         <v>27.608000000000004</v>
       </c>
       <c r="M28" s="16">
         <v>64.540000000000006</v>
       </c>
-      <c r="N28" s="25">
+      <c r="N28" s="38">
         <f t="shared" ref="N28" si="23">AVERAGE(M28:M32)</f>
         <v>60.803999999999995</v>
       </c>
       <c r="O28" s="16">
         <v>0.64</v>
       </c>
-      <c r="P28" s="25">
+      <c r="P28" s="38">
         <f t="shared" ref="P28" si="24">AVERAGE(O28:O32)</f>
         <v>0.61799999999999999</v>
       </c>
@@ -2669,36 +6159,36 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="16">
         <v>99</v>
       </c>
-      <c r="F29" s="25"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="16">
         <v>0</v>
       </c>
-      <c r="H29" s="25"/>
+      <c r="H29" s="38"/>
       <c r="I29" s="16">
         <v>0</v>
       </c>
-      <c r="J29" s="25"/>
+      <c r="J29" s="38"/>
       <c r="K29" s="16">
         <v>0</v>
       </c>
-      <c r="L29" s="25"/>
+      <c r="L29" s="38"/>
       <c r="M29" s="16">
         <v>49.75</v>
       </c>
-      <c r="N29" s="25"/>
+      <c r="N29" s="38"/>
       <c r="O29" s="16">
         <v>0.5</v>
       </c>
-      <c r="P29" s="25"/>
+      <c r="P29" s="38"/>
       <c r="Q29" s="15">
         <v>3967</v>
       </c>
@@ -2707,36 +6197,36 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="16">
         <v>96.9</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="16">
         <v>3.67</v>
       </c>
-      <c r="H30" s="25"/>
+      <c r="H30" s="38"/>
       <c r="I30" s="16">
         <v>17.39</v>
       </c>
-      <c r="J30" s="25"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="16">
         <v>6.06</v>
       </c>
-      <c r="L30" s="25"/>
+      <c r="L30" s="38"/>
       <c r="M30" s="16">
         <v>52.24</v>
       </c>
-      <c r="N30" s="25"/>
+      <c r="N30" s="38"/>
       <c r="O30" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="P30" s="25"/>
+      <c r="P30" s="38"/>
       <c r="Q30" s="15">
         <v>3977</v>
       </c>
@@ -2745,36 +6235,36 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="16">
         <v>98.68</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="16">
         <v>65.52</v>
       </c>
-      <c r="H31" s="25"/>
+      <c r="H31" s="38"/>
       <c r="I31" s="16">
         <v>71.25</v>
       </c>
-      <c r="J31" s="25"/>
+      <c r="J31" s="38"/>
       <c r="K31" s="16">
         <v>68.260000000000005</v>
       </c>
-      <c r="L31" s="25"/>
+      <c r="L31" s="38"/>
       <c r="M31" s="16">
         <v>83.79</v>
       </c>
-      <c r="N31" s="25"/>
+      <c r="N31" s="38"/>
       <c r="O31" s="16">
         <v>0.85</v>
       </c>
-      <c r="P31" s="25"/>
+      <c r="P31" s="38"/>
       <c r="Q31" s="15">
         <v>3920</v>
       </c>
@@ -2783,36 +6273,36 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E32" s="16">
         <v>99.4</v>
       </c>
-      <c r="F32" s="25"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="16">
         <v>14.29</v>
       </c>
-      <c r="H32" s="25"/>
+      <c r="H32" s="38"/>
       <c r="I32" s="16">
         <v>5.26</v>
       </c>
-      <c r="J32" s="25"/>
+      <c r="J32" s="38"/>
       <c r="K32" s="16">
         <v>7.69</v>
       </c>
-      <c r="L32" s="25"/>
+      <c r="L32" s="38"/>
       <c r="M32" s="16">
         <v>53.7</v>
       </c>
-      <c r="N32" s="25"/>
+      <c r="N32" s="38"/>
       <c r="O32" s="16">
         <v>0.53</v>
       </c>
-      <c r="P32" s="25"/>
+      <c r="P32" s="38"/>
       <c r="Q32" s="15">
         <v>3981</v>
       </c>
@@ -2844,6 +6334,7 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="P3:P7"/>
     <mergeCell ref="F28:F32"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="H8:H12"/>
@@ -2868,7 +6359,6 @@
     <mergeCell ref="J3:J7"/>
     <mergeCell ref="J8:J12"/>
     <mergeCell ref="J13:J17"/>
-    <mergeCell ref="P3:P7"/>
     <mergeCell ref="P8:P12"/>
     <mergeCell ref="P13:P17"/>
     <mergeCell ref="P18:P22"/>
@@ -2888,7 +6378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FB7470-7974-49E1-91D1-266D323D9D68}">
   <dimension ref="A1:V22"/>
   <sheetViews>
@@ -2913,54 +6403,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="28" t="s">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="13" t="s">
         <v>76</v>
       </c>
@@ -2997,21 +6487,21 @@
       <c r="P2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="36" t="s">
         <v>73</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -3020,42 +6510,42 @@
       <c r="E3" s="10">
         <v>62.88</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="29">
         <f>AVERAGE(E3:E7)</f>
         <v>91.31</v>
       </c>
       <c r="G3" s="10">
         <v>58.33</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="29">
         <f t="shared" ref="H3" si="0">AVERAGE(G3:G7)</f>
         <v>33.604000000000006</v>
       </c>
       <c r="I3" s="10">
         <v>38.799999999999997</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="29">
         <f t="shared" ref="J3" si="1">AVERAGE(I3:I7)</f>
         <v>29.794</v>
       </c>
       <c r="K3" s="10">
         <v>46.6</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="29">
         <f t="shared" ref="L3" si="2">AVERAGE(K3:K7)</f>
         <v>29.459999999999997</v>
       </c>
       <c r="M3" s="10">
         <v>59.07</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="29">
         <f t="shared" ref="N3" si="3">AVERAGE(M3:M7)</f>
         <v>61.564</v>
       </c>
       <c r="O3" s="10">
         <v>0.59</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="29">
         <f t="shared" ref="P3" si="4">AVERAGE(O3:O7)</f>
         <v>0.62400000000000011</v>
       </c>
@@ -3067,36 +6557,36 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="10">
         <v>98.72</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="10">
         <v>5</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="10">
         <v>3.03</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="10">
         <v>3.77</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="29"/>
       <c r="M4" s="10">
         <v>51.57</v>
       </c>
-      <c r="N4" s="23"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="10">
         <v>0.51</v>
       </c>
-      <c r="P4" s="23"/>
+      <c r="P4" s="29"/>
       <c r="Q4" s="9">
         <v>3967</v>
       </c>
@@ -3105,36 +6595,36 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="10">
         <v>96.88</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="10">
         <v>5.26</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="10">
         <v>26.09</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="10">
         <v>8.76</v>
       </c>
-      <c r="L5" s="23"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="10">
         <v>53.58</v>
       </c>
-      <c r="N5" s="23"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="10">
         <v>0.62</v>
       </c>
-      <c r="P5" s="23"/>
+      <c r="P5" s="29"/>
       <c r="Q5" s="9">
         <v>3977</v>
       </c>
@@ -3143,36 +6633,36 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="10">
         <v>98.95</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="17">
         <v>82.76</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="10">
         <v>60</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="10">
         <v>69.569999999999993</v>
       </c>
-      <c r="L6" s="23"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="10">
         <v>84.52</v>
       </c>
-      <c r="N6" s="23"/>
+      <c r="N6" s="29"/>
       <c r="O6" s="10">
         <v>0.8</v>
       </c>
-      <c r="P6" s="23"/>
+      <c r="P6" s="29"/>
       <c r="Q6" s="9">
         <v>3920</v>
       </c>
@@ -3182,36 +6672,36 @@
       <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="10">
         <v>99.12</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="10">
         <v>16.670000000000002</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="10">
         <v>21.05</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="10">
         <v>18.600000000000001</v>
       </c>
-      <c r="L7" s="23"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="10">
         <v>59.08</v>
       </c>
-      <c r="N7" s="23"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="10">
         <v>0.6</v>
       </c>
-      <c r="P7" s="23"/>
+      <c r="P7" s="29"/>
       <c r="Q7" s="9">
         <v>3981</v>
       </c>
@@ -3220,9 +6710,9 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="29" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="41" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -3231,42 +6721,42 @@
       <c r="E8" s="16">
         <v>62.45</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="37">
         <f>AVERAGE(E8:E12)</f>
         <v>91.554000000000002</v>
       </c>
       <c r="G8" s="16">
         <v>55.58</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="37">
         <f t="shared" ref="H8" si="5">AVERAGE(G8:G12)</f>
         <v>27.796000000000003</v>
       </c>
       <c r="I8" s="16">
         <v>50.12</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="37">
         <f t="shared" ref="J8" si="6">AVERAGE(I8:I12)</f>
         <v>26.881999999999998</v>
       </c>
       <c r="K8" s="16">
         <v>52.71</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="37">
         <f t="shared" ref="L8" si="7">AVERAGE(K8:K12)</f>
         <v>26.818000000000001</v>
       </c>
       <c r="M8" s="16">
         <v>60.79</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="37">
         <f t="shared" ref="N8" si="8">AVERAGE(M8:M12)</f>
         <v>60.06</v>
       </c>
       <c r="O8" s="16">
         <v>0.61</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="37">
         <f t="shared" ref="P8" si="9">AVERAGE(O8:O12)</f>
         <v>0.63</v>
       </c>
@@ -3278,36 +6768,36 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="16">
         <v>98.95</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="16">
         <v>0</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="16">
         <v>0</v>
       </c>
-      <c r="J9" s="26"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="16">
         <v>0</v>
       </c>
-      <c r="L9" s="26"/>
+      <c r="L9" s="37"/>
       <c r="M9" s="16">
         <v>49.74</v>
       </c>
-      <c r="N9" s="26"/>
+      <c r="N9" s="37"/>
       <c r="O9" s="16">
         <v>0.5</v>
       </c>
-      <c r="P9" s="26"/>
+      <c r="P9" s="37"/>
       <c r="Q9" s="15">
         <v>3967</v>
       </c>
@@ -3316,36 +6806,36 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="16">
         <v>97.8</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="16">
         <v>4.2300000000000004</v>
       </c>
-      <c r="H10" s="26"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="16">
         <v>13.04</v>
       </c>
-      <c r="J10" s="26"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="16">
         <v>6.38</v>
       </c>
-      <c r="L10" s="26"/>
+      <c r="L10" s="37"/>
       <c r="M10" s="16">
         <v>52.63</v>
       </c>
-      <c r="N10" s="26"/>
+      <c r="N10" s="37"/>
       <c r="O10" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="P10" s="26"/>
+      <c r="P10" s="37"/>
       <c r="Q10" s="15">
         <v>3977</v>
       </c>
@@ -3354,36 +6844,36 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="16">
         <v>99.05</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="16">
         <v>79.17</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="16">
         <v>71.25</v>
       </c>
-      <c r="J11" s="26"/>
+      <c r="J11" s="37"/>
       <c r="K11" s="16">
         <v>75</v>
       </c>
-      <c r="L11" s="26"/>
+      <c r="L11" s="37"/>
       <c r="M11" s="16">
         <v>87.26</v>
       </c>
-      <c r="N11" s="26"/>
+      <c r="N11" s="37"/>
       <c r="O11" s="16">
         <v>0.85</v>
       </c>
-      <c r="P11" s="26"/>
+      <c r="P11" s="37"/>
       <c r="Q11" s="15">
         <v>3920</v>
       </c>
@@ -3392,34 +6882,34 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="16">
         <v>99.52</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="16">
         <v>0</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="16">
         <v>0</v>
       </c>
-      <c r="J12" s="26"/>
+      <c r="J12" s="37"/>
       <c r="K12" s="16">
         <v>0</v>
       </c>
-      <c r="L12" s="26"/>
+      <c r="L12" s="37"/>
       <c r="M12" s="16">
         <v>49.88</v>
       </c>
-      <c r="N12" s="26"/>
+      <c r="N12" s="37"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="26"/>
+      <c r="P12" s="37"/>
       <c r="Q12" s="15">
         <v>3981</v>
       </c>
@@ -3428,11 +6918,11 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="36" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -3441,41 +6931,41 @@
       <c r="E13" s="10">
         <v>62.32</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="29">
         <f>AVERAGE(E13:E17)</f>
         <v>90.974000000000004</v>
       </c>
       <c r="G13" s="10">
         <v>55.45</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="29">
         <v>43.75</v>
       </c>
       <c r="I13" s="10">
         <v>49.64</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="29">
         <f t="shared" ref="J13" si="10">AVERAGE(I13:I17)</f>
         <v>27.660000000000004</v>
       </c>
       <c r="K13" s="10">
         <v>52.39</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="29">
         <f t="shared" ref="L13" si="11">AVERAGE(K13:K17)</f>
         <v>29.304000000000002</v>
       </c>
       <c r="M13" s="10">
         <v>60.61</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="29">
         <f t="shared" ref="N13" si="12">AVERAGE(M13:M17)</f>
         <v>61.158000000000001</v>
       </c>
       <c r="O13" s="10">
         <v>0.61</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="29">
         <f t="shared" ref="P13" si="13">AVERAGE(O13:O17)</f>
         <v>0.60600000000000009</v>
       </c>
@@ -3487,36 +6977,36 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="10">
         <v>98.58</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="10">
         <v>3.85</v>
       </c>
-      <c r="H14" s="23"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="10">
         <v>3.03</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="29"/>
       <c r="K14" s="10">
         <v>3.39</v>
       </c>
-      <c r="L14" s="23"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="10">
         <v>51.34</v>
       </c>
-      <c r="N14" s="23"/>
+      <c r="N14" s="29"/>
       <c r="O14" s="10">
         <v>0.51</v>
       </c>
-      <c r="P14" s="23"/>
+      <c r="P14" s="29"/>
       <c r="Q14" s="9">
         <v>3967</v>
       </c>
@@ -3525,36 +7015,36 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="10">
         <v>95.62</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="10">
         <v>3.66</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="10">
         <v>26.09</v>
       </c>
-      <c r="J15" s="23"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="10">
         <v>6.42</v>
       </c>
-      <c r="L15" s="23"/>
+      <c r="L15" s="29"/>
       <c r="M15" s="10">
         <v>52.09</v>
       </c>
-      <c r="N15" s="23"/>
+      <c r="N15" s="29"/>
       <c r="O15" s="10">
         <v>0.61</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="29"/>
       <c r="Q15" s="9">
         <v>3977</v>
       </c>
@@ -3563,36 +7053,36 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="10">
         <v>98.8</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="10">
         <v>92.11</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="10">
         <v>43.75</v>
       </c>
-      <c r="J16" s="23"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="10">
         <v>59.32</v>
       </c>
-      <c r="L16" s="23"/>
+      <c r="L16" s="29"/>
       <c r="M16" s="10">
         <v>79.36</v>
       </c>
-      <c r="N16" s="23"/>
+      <c r="N16" s="29"/>
       <c r="O16" s="10">
         <v>0.72</v>
       </c>
-      <c r="P16" s="23"/>
+      <c r="P16" s="29"/>
       <c r="Q16" s="9">
         <v>3920</v>
       </c>
@@ -3601,36 +7091,36 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="10">
         <v>99.55</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="10">
         <v>60</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="10">
         <v>15.79</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="10">
         <v>25</v>
       </c>
-      <c r="L17" s="23"/>
+      <c r="L17" s="29"/>
       <c r="M17" s="10">
         <v>62.39</v>
       </c>
-      <c r="N17" s="23"/>
+      <c r="N17" s="29"/>
       <c r="O17" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="P17" s="23"/>
+      <c r="P17" s="29"/>
       <c r="Q17" s="9">
         <v>3981</v>
       </c>
@@ -3639,9 +7129,9 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="29" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="41" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -3650,42 +7140,42 @@
       <c r="E18" s="16">
         <v>62.3</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="37">
         <f>AVERAGE(E18:E22)</f>
         <v>91.47</v>
       </c>
       <c r="G18" s="16">
         <v>55.61</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="37">
         <f t="shared" ref="H18" si="14">AVERAGE(G18:G22)</f>
         <v>29.712</v>
       </c>
       <c r="I18" s="16">
         <v>48.08</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="37">
         <f t="shared" ref="J18" si="15">AVERAGE(I18:I22)</f>
         <v>28.689999999999998</v>
       </c>
       <c r="K18" s="16">
         <v>51.57</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="37">
         <f t="shared" ref="L18" si="16">AVERAGE(K18:K22)</f>
         <v>27.794</v>
       </c>
       <c r="M18" s="16">
         <v>60.35</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="37">
         <f t="shared" ref="N18" si="17">AVERAGE(M18:M22)</f>
         <v>60.56</v>
       </c>
       <c r="O18" s="16">
         <v>0.6</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="37">
         <f t="shared" ref="P18" si="18">AVERAGE(O18:O22)</f>
         <v>0.61199999999999999</v>
       </c>
@@ -3697,36 +7187,36 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="16">
         <v>98.9</v>
       </c>
-      <c r="F19" s="26"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="16">
         <v>7.69</v>
       </c>
-      <c r="H19" s="26"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="16">
         <v>3.03</v>
       </c>
-      <c r="J19" s="26"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="16">
         <v>4.3499999999999996</v>
       </c>
-      <c r="L19" s="26"/>
+      <c r="L19" s="37"/>
       <c r="M19" s="16">
         <v>51.9</v>
       </c>
-      <c r="N19" s="26"/>
+      <c r="N19" s="37"/>
       <c r="O19" s="16">
         <v>0.51</v>
       </c>
-      <c r="P19" s="26"/>
+      <c r="P19" s="37"/>
       <c r="Q19" s="15">
         <v>3967</v>
       </c>
@@ -3735,36 +7225,36 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="16">
         <v>97.68</v>
       </c>
-      <c r="F20" s="26"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="16">
         <v>7.32</v>
       </c>
-      <c r="H20" s="26"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="16">
         <v>26.09</v>
       </c>
-      <c r="J20" s="26"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="16">
         <v>11.43</v>
       </c>
-      <c r="L20" s="26"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="16">
         <v>55.13</v>
       </c>
-      <c r="N20" s="26"/>
+      <c r="N20" s="37"/>
       <c r="O20" s="16">
         <v>0.62</v>
       </c>
-      <c r="P20" s="26"/>
+      <c r="P20" s="37"/>
       <c r="Q20" s="15">
         <v>3977</v>
       </c>
@@ -3773,36 +7263,36 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="16">
         <v>98.95</v>
       </c>
-      <c r="F21" s="26"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="16">
         <v>77.94</v>
       </c>
-      <c r="H21" s="26"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="16">
         <v>66.25</v>
       </c>
-      <c r="J21" s="26"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="16">
         <v>71.62</v>
       </c>
-      <c r="L21" s="26"/>
+      <c r="L21" s="37"/>
       <c r="M21" s="16">
         <v>85.54</v>
       </c>
-      <c r="N21" s="26"/>
+      <c r="N21" s="37"/>
       <c r="O21" s="16">
         <v>0.83</v>
       </c>
-      <c r="P21" s="26"/>
+      <c r="P21" s="37"/>
       <c r="Q21" s="15">
         <v>3920</v>
       </c>
@@ -3811,36 +7301,36 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="16">
         <v>99.52</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="16">
         <v>0</v>
       </c>
-      <c r="H22" s="26"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="16">
         <v>0</v>
       </c>
-      <c r="J22" s="26"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="16">
         <v>0</v>
       </c>
-      <c r="L22" s="26"/>
+      <c r="L22" s="37"/>
       <c r="M22" s="16">
         <v>49.88</v>
       </c>
-      <c r="N22" s="26"/>
+      <c r="N22" s="37"/>
       <c r="O22" s="16">
         <v>0.5</v>
       </c>
-      <c r="P22" s="26"/>
+      <c r="P22" s="37"/>
       <c r="Q22" s="15">
         <v>3981</v>
       </c>
@@ -3899,7 +7389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDD735A-57D4-40B3-ABFC-94C9F586F621}">
   <dimension ref="A1:P18"/>
   <sheetViews>
